--- a/문서/Result_ALL.xlsx
+++ b/문서/Result_ALL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Naver MYBOX\Cording Study\Kosa\Code\C++\WAiSER Use Project\최종 프로젝트\DT_FINAL_Project\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Documents\GitHub\DT_FINAL_Project\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A115EF-28DA-48CE-84C9-FEF66200F5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D79CFF-25DF-4A98-A957-E6C6219D4E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Result_ALL" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="89">
   <si>
     <t>INIT TIME</t>
   </si>
@@ -369,18 +369,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>합계</t>
-  </si>
-  <si>
-    <t>평균</t>
+    <t>시나리오 2 설비별 버퍼 평균</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>누계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수</t>
+    <t>시나리오 3 설비별 버퍼 평균</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1872,6 +1865,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Buf Count</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> 3 Avg</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2322,6 +2344,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>TOTAL</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+              <a:t> Buffer Count Avg</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2553,6 +2605,666 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>시나리오</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>2 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>설비별 버퍼 평균</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24918044619422572"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Buf Count Avg'!$O$11,'Buf Count Avg'!$P$11,'Buf Count Avg'!$Q$11,'Buf Count Avg'!$R$11,'Buf Count Avg'!$S$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>GEN.AVG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TRACK.AVG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PROC.AVG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>STOCK.AVG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TOTAL.AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Buf Count Avg'!$O$12,'Buf Count Avg'!$P$12,'Buf Count Avg'!$Q$12,'Buf Count Avg'!$R$12,'Buf Count Avg'!$S$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.13549754866666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22142863466666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7109929815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54244031799999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6525898707083333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A8C-4954-8FB8-D5495312A43A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1595731296"/>
+        <c:axId val="1418671440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1595731296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1418671440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1418671440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1595731296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>시나리오</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>3 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>설비별 버퍼 평균</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15852580927384077"/>
+          <c:y val="0.20467592592592593"/>
+          <c:w val="0.79509930008748908"/>
+          <c:h val="0.68792468649752114"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Buf Count Avg'!$X$21,'Buf Count Avg'!$Y$21,'Buf Count Avg'!$Z$21,'Buf Count Avg'!$AA$21,'Buf Count Avg'!$AB$21)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>GEN.AVG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TRACK.AVG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PROC.AVG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>STOCK.AVG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TOTAL.AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Buf Count Avg'!$X$22,'Buf Count Avg'!$Y$22,'Buf Count Avg'!$Z$22,'Buf Count Avg'!$AA$22,'Buf Count Avg'!$AB$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.0313634031428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63316878889473693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2650861454000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29840848799999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0570067063593986</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C110-43EC-8557-A443C475AED2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1469831120"/>
+        <c:axId val="1600216112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1469831120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1600216112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1600216112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1469831120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -5315,6 +6027,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8677,6 +9469,1016 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -13068,15 +14870,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13104,15 +14906,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>644525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>536575</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>593725</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13140,14 +14942,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>574675</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:colOff>555625</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13176,14 +14978,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>574675</xdr:colOff>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>473075</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13211,16 +15013,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>168275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13247,16 +15049,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13284,15 +15086,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13312,6 +15114,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>650875</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B801351-0911-3F6B-2E4B-F2344A59524D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>549275</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="차트 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568C4036-C1BB-2BF9-778B-865829B6AC93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14312,10 +16186,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC405B51-86C9-4C92-A463-353E118B9C8A}">
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -14402,9 +16276,17 @@
         <v>2.012651504375</v>
       </c>
     </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>16</v>
+      </c>
+      <c r="O10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.45">
@@ -14447,6 +16329,21 @@
       <c r="M11" t="s">
         <v>75</v>
       </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A12">
@@ -14488,6 +16385,26 @@
       <c r="M12">
         <v>0.53846153799999996</v>
       </c>
+      <c r="O12">
+        <f>AVERAGE(A12:C12)</f>
+        <v>0.13549754866666666</v>
+      </c>
+      <c r="P12">
+        <f>AVERAGE(D12:I12)</f>
+        <v>0.22142863466666665</v>
+      </c>
+      <c r="Q12">
+        <f>AVERAGE(J12:K12)</f>
+        <v>1.7109929815</v>
+      </c>
+      <c r="R12">
+        <f>AVERAGE(L12:M12)</f>
+        <v>0.54244031799999992</v>
+      </c>
+      <c r="S12">
+        <f>AVERAGE(O12:R12)</f>
+        <v>0.6525898707083333</v>
+      </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
@@ -14711,6 +16628,9 @@
       </c>
       <c r="E19" t="s">
         <v>82</v>
+      </c>
+      <c r="X19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.45">
@@ -14733,6 +16653,48 @@
       <c r="E20">
         <f>AVERAGE(A20:D20)</f>
         <v>1.1547823073976431</v>
+      </c>
+      <c r="X20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="X21" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="X22">
+        <f>AVERAGE(A17:G17)</f>
+        <v>1.0313634031428571</v>
+      </c>
+      <c r="Y22">
+        <f>AVERAGE(H17:Z17)</f>
+        <v>0.63316878889473693</v>
+      </c>
+      <c r="Z22">
+        <f>AVERAGE(AA17:AE17)</f>
+        <v>2.2650861454000002</v>
+      </c>
+      <c r="AA22">
+        <f>AVERAGE(AF17:AG17)</f>
+        <v>0.29840848799999997</v>
+      </c>
+      <c r="AB22">
+        <f>AVERAGE(X22:AA22)</f>
+        <v>1.0570067063593986</v>
       </c>
     </row>
   </sheetData>

--- a/문서/Result_ALL.xlsx
+++ b/문서/Result_ALL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Documents\GitHub\DT_FINAL_Project\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D79CFF-25DF-4A98-A957-E6C6219D4E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A65E48-8625-4C69-BB0D-A2AB250B0C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="State Avg Rate" sheetId="1" r:id="rId2"/>
     <sheet name="Buf Count Avg" sheetId="2" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -462,9 +465,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -475,22 +478,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:rPr lang="ko-KR"/>
               <a:t>시나리오 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>3</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>2 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US" baseline="0"/>
+              <a:rPr lang="ko-KR"/>
               <a:t>설비 비율</a:t>
             </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -502,26 +500,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -529,8 +507,118 @@
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-1A6E-478A-9D56-FE902C7B1419}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-1A6E-478A-9D56-FE902C7B1419}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-1A6E-478A-9D56-FE902C7B1419}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-1A6E-478A-9D56-FE902C7B1419}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Result_ALL!$C$3:$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GEN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TRACK</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PROC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>STOCK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Result_ALL!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-1A6E-478A-9D56-FE902C7B1419}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
@@ -538,16 +626,20 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-C066-4097-B651-BF130B355300}"/>
+                <c16:uniqueId val="{0000000B-1A6E-478A-9D56-FE902C7B1419}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -558,16 +650,20 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-C066-4097-B651-BF130B355300}"/>
+                <c16:uniqueId val="{0000000D-1A6E-478A-9D56-FE902C7B1419}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -578,16 +674,20 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-C066-4097-B651-BF130B355300}"/>
+                <c16:uniqueId val="{0000000F-1A6E-478A-9D56-FE902C7B1419}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -598,53 +698,110 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-1A6E-478A-9D56-FE902C7B1419}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-C066-4097-B651-BF130B355300}"/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
-          </c:dPt>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Result_ALL!$C$43:$F$43</c:f>
+              <c:f>[1]Result_ALL!$C$23:$F$23</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>GEN Count</c:v>
+                  <c:v>GEN</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TRACK Count</c:v>
+                  <c:v>TRACK</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>PROC Count</c:v>
+                  <c:v>PROC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>STOCK Count</c:v>
+                  <c:v>STOCK</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Result_ALL!$C$44:$F$44</c:f>
+              <c:f>[1]Result_ALL!$C$24:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2</c:v>
@@ -654,34 +811,32 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1741-4135-A7EC-39D69A88AD72}"/>
+              <c16:uniqueId val="{00000012-1A6E-478A-9D56-FE902C7B1419}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -694,7 +849,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -713,12 +868,19 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3321,9 +3483,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -3334,15 +3496,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:rPr lang="ko-KR"/>
               <a:t>시나리오 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>2 </a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>1 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:rPr lang="ko-KR"/>
               <a:t>설비 비율</a:t>
             </a:r>
           </a:p>
@@ -3361,9 +3523,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -3392,16 +3554,20 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-BF6E-49DA-87D8-DCDE8E6E20E6}"/>
+                <c16:uniqueId val="{00000001-F6C7-464C-8D49-A8C88DCB9DB6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3412,16 +3578,20 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-BF6E-49DA-87D8-DCDE8E6E20E6}"/>
+                <c16:uniqueId val="{00000003-F6C7-464C-8D49-A8C88DCB9DB6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3432,16 +3602,20 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-BF6E-49DA-87D8-DCDE8E6E20E6}"/>
+                <c16:uniqueId val="{00000005-F6C7-464C-8D49-A8C88DCB9DB6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3452,72 +3626,130 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F6C7-464C-8D49-A8C88DCB9DB6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-BF6E-49DA-87D8-DCDE8E6E20E6}"/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
-          </c:dPt>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Result_ALL!$C$23:$F$23</c:f>
+              <c:f>[1]Result_ALL!$C$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>GEN Count</c:v>
+                  <c:v>GEN</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TRACK Count</c:v>
+                  <c:v>TRACK</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>PROC Count</c:v>
+                  <c:v>PROC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>STOCK Count</c:v>
+                  <c:v>STOCK</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Result_ALL!$C$24:$F$24</c:f>
+              <c:f>[1]Result_ALL!$C$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F3B1-420F-8AAD-4E4764B6440A}"/>
+              <c16:uniqueId val="{00000008-F6C7-464C-8D49-A8C88DCB9DB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -3532,10 +3764,14 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3548,7 +3784,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -3567,12 +3803,19 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3620,9 +3863,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -3633,15 +3876,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:rPr lang="ko-KR"/>
               <a:t>시나리오 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>1 </a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>3 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:rPr lang="ko-KR"/>
               <a:t>설비 비율</a:t>
             </a:r>
           </a:p>
@@ -3660,9 +3903,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -3691,16 +3934,20 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-7CD2-4562-9E1C-D9E6116094C8}"/>
+                <c16:uniqueId val="{00000001-8AED-4FCB-8F3F-9FA94B7E2CB6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3711,16 +3958,20 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7CD2-4562-9E1C-D9E6116094C8}"/>
+                <c16:uniqueId val="{00000003-8AED-4FCB-8F3F-9FA94B7E2CB6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3731,16 +3982,20 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-7CD2-4562-9E1C-D9E6116094C8}"/>
+                <c16:uniqueId val="{00000005-8AED-4FCB-8F3F-9FA94B7E2CB6}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3751,72 +4006,130 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8AED-4FCB-8F3F-9FA94B7E2CB6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-7CD2-4562-9E1C-D9E6116094C8}"/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
-          </c:dPt>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Result_ALL!$C$3:$F$3</c:f>
+              <c:f>[1]Result_ALL!$C$43:$F$43</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>GEN Count</c:v>
+                  <c:v>GEN</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TRACK Count</c:v>
+                  <c:v>TRACK</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>PROC Count</c:v>
+                  <c:v>PROC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>STOCK Count</c:v>
+                  <c:v>STOCK</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Result_ALL!$C$4:$F$4</c:f>
+              <c:f>[1]Result_ALL!$C$44:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A767-4942-93FF-D065DE48E5E3}"/>
+              <c16:uniqueId val="{00000008-8AED-4FCB-8F3F-9FA94B7E2CB6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -3831,10 +4144,14 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -3847,7 +4164,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -3866,12 +4183,19 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -6067,46 +6391,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6428,78 +6712,8 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
   <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6509,11 +6723,76 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
@@ -6529,36 +6808,51 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -6566,6 +6860,513 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6603,7 +7404,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -6946,7 +7747,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7451,8 +8252,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7656,23 +8457,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7777,8 +8577,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7910,20 +8710,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -7956,7 +8755,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8461,8 +9260,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8666,22 +9465,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -8786,8 +9586,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8919,19 +9719,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8964,7 +9765,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9469,79 +10270,9 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
   <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -9551,11 +10282,76 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
@@ -9571,29 +10367,579 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -9631,7 +10977,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -9974,8 +11320,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10032,7 +11378,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -10083,6 +11429,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -10093,12 +11446,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -10136,7 +11496,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -10479,7 +11839,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10998,7 +12358,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11517,8 +12877,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11575,7 +12935,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -11626,13 +12986,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -11643,19 +12996,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -11693,7 +13039,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -12036,8 +13382,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12094,7 +13440,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -12145,13 +13491,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -12162,19 +13501,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -12212,7 +13544,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -12555,8 +13887,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12613,7 +13945,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -12664,13 +13996,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -12681,19 +14006,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -12731,1535 +14049,6 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
     <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -14607,27 +14396,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>631825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
+        <xdr:cNvPr id="5" name="차트 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{909CF67C-6B1D-45F5-AE96-9FCC0B2A8A75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8254D444-1146-49CB-AF3A-C465C874EB8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -14644,26 +14435,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>612775</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2">
+        <xdr:cNvPr id="6" name="차트 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF084EA3-E3AF-D92F-D8BC-AA3E1D9CA49B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B49AB7-247B-4F64-AA63-A074E5AD3073}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -14679,27 +14472,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>612775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="차트 3">
+        <xdr:cNvPr id="8" name="차트 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0524881-007B-89E8-CFEC-02228BEFA5E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D8D288-31FA-4D9E-AFAE-E1D054CDAD68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -15194,6 +14989,111 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Result_ALL"/>
+      <sheetName val="State Avg Rate"/>
+      <sheetName val="Buf Count Avg"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>GEN</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>TRACK</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>PROC</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>STOCK</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+          <cell r="D4">
+            <v>2</v>
+          </cell>
+          <cell r="E4">
+            <v>1</v>
+          </cell>
+          <cell r="F4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>GEN</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>TRACK</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>PROC</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>STOCK</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>3</v>
+          </cell>
+          <cell r="D24">
+            <v>6</v>
+          </cell>
+          <cell r="E24">
+            <v>2</v>
+          </cell>
+          <cell r="F24">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43" t="str">
+            <v>GEN</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>TRACK</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>PROC</v>
+          </cell>
+          <cell r="F43" t="str">
+            <v>STOCK</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>7</v>
+          </cell>
+          <cell r="D44">
+            <v>19</v>
+          </cell>
+          <cell r="E44">
+            <v>5</v>
+          </cell>
+          <cell r="F44">
+            <v>2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -15493,8 +15393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D4D23E-0EB1-4402-9ED8-13A029C3A06D}">
   <dimension ref="A2:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -16188,7 +16088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC405B51-86C9-4C92-A463-353E118B9C8A}">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>

--- a/문서/Result_ALL.xlsx
+++ b/문서/Result_ALL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Documents\GitHub\DT_FINAL_Project\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Naver MYBOX\Cording Study\Kosa\Code\C++\WAiSER Use Project\최종 프로젝트\DT_FINAL_Project\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A65E48-8625-4C69-BB0D-A2AB250B0C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05370F13-72CD-434D-AEB2-DB7DFE64DABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Result_ALL" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="89">
   <si>
     <t>INIT TIME</t>
   </si>
@@ -67,22 +67,6 @@
   </si>
   <si>
     <t>State Avg Rate3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACTIVE TIME AVG RATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INIT TIME AVG RATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ERROR TIME AVG RATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAUSE TIME AVG RATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -379,6 +363,22 @@
     <t>시나리오 3 설비별 버퍼 평균</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>INIT TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTIVE TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAUSE TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -500,6 +500,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -512,7 +532,21 @@
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000014-1A6E-478A-9D56-FE902C7B1419}"/>
@@ -522,7 +556,21 @@
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
-            <c:spPr/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000015-1A6E-478A-9D56-FE902C7B1419}"/>
@@ -532,7 +580,21 @@
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
-            <c:spPr/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000016-1A6E-478A-9D56-FE902C7B1419}"/>
@@ -542,7 +604,21 @@
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
-            <c:spPr/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000017-1A6E-478A-9D56-FE902C7B1419}"/>
@@ -557,6 +633,25 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -565,6 +660,20 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
@@ -827,6 +936,13 @@
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1712,7 +1828,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1725,16 +1841,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:rPr lang="ko-KR"/>
               <a:t>시나리오 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:rPr lang="en-US"/>
               <a:t>1 </a:t>
             </a:r>
             <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>설비</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>설비별 버퍼 평균</a:t>
+              <a:t>종류</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>별 버퍼 평균</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1752,7 +1880,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1779,13 +1907,42 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -1856,7 +2013,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
         <c:axId val="124423071"/>
         <c:axId val="125193055"/>
       </c:barChart>
@@ -1873,7 +2031,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2033,7 +2191,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2046,12 +2204,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Buf Count</a:t>
+              <a:rPr lang="ko-KR"/>
+              <a:t>시나리오 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> 3 Avg</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>3 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>버퍼 평균</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2069,7 +2231,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2096,13 +2258,42 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2334,8 +2525,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="576810031"/>
         <c:axId val="58582639"/>
       </c:barChart>
@@ -2352,7 +2543,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2512,7 +2703,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2525,14 +2716,9 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>TOTAL</a:t>
+              <a:rPr lang="ko-KR"/>
+              <a:t>총 버퍼 평균</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> Buffer Count Avg</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2549,7 +2735,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2576,13 +2762,42 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2646,7 +2861,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
         <c:axId val="570063391"/>
         <c:axId val="124000431"/>
       </c:barChart>
@@ -2663,7 +2879,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2823,7 +3039,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2836,28 +3052,32 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:rPr lang="ko-KR"/>
               <a:t>시나리오</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:rPr lang="en-US"/>
               <a:t>2 </a:t>
             </a:r>
             <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>설비</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>설비별 버퍼 평균</a:t>
+              <a:t>종류</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>별 버퍼 평균</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.24918044619422572"/>
-          <c:y val="2.3148148148148147E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2871,7 +3091,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2898,13 +3118,42 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -2968,7 +3217,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
         <c:axId val="1595731296"/>
         <c:axId val="1418671440"/>
       </c:barChart>
@@ -2985,7 +3235,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -3152,7 +3402,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3165,16 +3415,28 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:rPr lang="ko-KR"/>
               <a:t>시나리오</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:rPr lang="en-US"/>
               <a:t>3 </a:t>
             </a:r>
             <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>설비</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>설비별 버퍼 평균</a:t>
+              <a:t>종류</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>별 버퍼 평균</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3192,7 +3454,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3229,13 +3491,42 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -3299,7 +3590,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
         <c:axId val="1469831120"/>
         <c:axId val="1600216112"/>
       </c:barChart>
@@ -3316,7 +3608,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -3781,7 +4073,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1">
@@ -4243,9 +4535,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -4256,14 +4548,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>State</a:t>
+              <a:rPr lang="ko-KR"/>
+              <a:t>시나리오</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> Avg Rate3</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>3 </a:t>
             </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>설비 상태 비율</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4280,9 +4575,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -4311,12 +4606,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4331,12 +4630,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4351,12 +4654,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4371,12 +4678,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4384,6 +4695,59 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'State Avg Rate'!$A$11:$D$11</c:f>
@@ -4432,11 +4796,12 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -4451,10 +4816,14 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -4467,7 +4836,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -4486,12 +4855,19 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -4539,9 +4915,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -4552,14 +4928,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>State Avg</a:t>
+              <a:rPr lang="ko-KR"/>
+              <a:t>시나리오</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> Rate2</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>2 </a:t>
             </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>설비 상태 비율</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4576,9 +4955,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -4607,12 +4986,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4627,12 +5010,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4647,12 +5034,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4667,12 +5058,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4680,6 +5075,59 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>('State Avg Rate'!$A$7,'State Avg Rate'!$B$7,'State Avg Rate'!$C$7,'State Avg Rate'!$D$7)</c:f>
@@ -4728,11 +5176,12 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -4747,10 +5196,14 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -4763,7 +5216,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -4789,12 +5242,19 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -4842,9 +5302,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -4855,14 +5315,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>State</a:t>
+              <a:rPr lang="ko-KR"/>
+              <a:t>시나리오</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> Avg Rate1</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>1 </a:t>
             </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>설비 상태 비율</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4879,9 +5342,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -4910,12 +5373,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4930,12 +5397,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4950,12 +5421,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4970,12 +5445,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -4983,6 +5462,59 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>('State Avg Rate'!$A$3,'State Avg Rate'!$B$3,'State Avg Rate'!$C$3,'State Avg Rate'!$D$3)</c:f>
@@ -5031,11 +5563,12 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -5050,10 +5583,14 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -5066,7 +5603,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -5092,12 +5629,19 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -5145,9 +5689,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -5158,14 +5702,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>TIME</a:t>
+              <a:rPr lang="ko-KR"/>
+              <a:t>총 설비 상태</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> AVG RATE</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
             </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>평균 비율</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5182,9 +5729,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -5213,12 +5760,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5233,12 +5784,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5253,12 +5808,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5273,12 +5832,16 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -5286,22 +5849,75 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>('State Avg Rate'!$I$3,'State Avg Rate'!$J$3,'State Avg Rate'!$K$3,'State Avg Rate'!$L$3)</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>INIT TIME AVG RATE</c:v>
+                  <c:v>INIT TIME</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ACTIVE TIME AVG RATE</c:v>
+                  <c:v>ACTIVE TIME</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>ERROR TIME AVG RATE</c:v>
+                  <c:v>ERROR TIME</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>PAUSE TIME AVG RATE</c:v>
+                  <c:v>PAUSE TIME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5334,11 +5950,12 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -5353,10 +5970,14 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -5369,7 +5990,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -5395,12 +6016,19 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -5448,7 +6076,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5461,14 +6089,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Buf</a:t>
+              <a:rPr lang="ko-KR"/>
+              <a:t>시나리오 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> Count Avg  1</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>1 </a:t>
             </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>버퍼 평균</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5485,7 +6116,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5512,13 +6143,42 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -5582,7 +6242,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
         <c:axId val="209838831"/>
         <c:axId val="203035199"/>
       </c:barChart>
@@ -5599,7 +6260,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -5766,7 +6427,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5779,14 +6440,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Buf</a:t>
+              <a:rPr lang="ko-KR"/>
+              <a:t>시나리오 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> Count2 Avg</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>2 </a:t>
             </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>버퍼 평균</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5803,7 +6467,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5830,13 +6494,42 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -5948,7 +6641,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
         <c:axId val="203074063"/>
         <c:axId val="41477231"/>
       </c:barChart>
@@ -5965,7 +6659,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -6391,6 +7085,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8253,7 +8987,7 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8264,7 +8998,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -8277,7 +9011,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -8294,7 +9028,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8310,7 +9044,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -8354,20 +9088,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -8376,13 +9110,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8394,10 +9128,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -8406,16 +9140,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -8519,14 +9254,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -8616,20 +9345,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -8642,6 +9371,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -8673,7 +9413,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8682,14 +9422,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -8743,20 +9482,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8767,7 +9500,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -8780,7 +9513,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -8797,7 +9530,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8813,7 +9546,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -8857,35 +9590,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8897,30 +9630,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8960,23 +9694,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9023,14 +9756,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -9081,8 +9808,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9120,20 +9847,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -9146,6 +9873,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -9177,7 +9915,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -9186,14 +9924,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -9214,20 +9951,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9248,20 +9984,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9272,7 +10002,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -9285,7 +10015,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -9302,7 +10032,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -9318,7 +10048,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -9362,20 +10092,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -9384,13 +10114,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9402,10 +10132,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -9414,16 +10144,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -9465,23 +10196,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9528,14 +10258,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -9586,8 +10310,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9625,20 +10349,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -9651,6 +10375,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -9682,7 +10417,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -9691,14 +10426,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -9719,20 +10453,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9753,20 +10486,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9777,7 +10504,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -9790,7 +10517,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -9807,7 +10534,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -9823,7 +10550,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -9867,20 +10594,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -9889,13 +10616,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9907,10 +10634,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -9919,16 +10646,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -9970,23 +10698,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -10033,14 +10760,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -10091,8 +10812,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10130,20 +10851,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -10156,6 +10877,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -10187,7 +10919,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -10196,14 +10928,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -10224,20 +10955,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10258,14 +10988,510 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
       <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -10802,78 +12028,8 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
   <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -10883,11 +12039,76 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
@@ -10903,36 +12124,51 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -10942,7 +12178,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -10954,25 +12190,26 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -10980,7 +12217,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10996,7 +12233,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -11005,7 +12242,7 @@
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -11020,7 +12257,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -11031,7 +12268,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -11045,12 +12282,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -11064,12 +12301,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -11083,7 +12320,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:noFill/>
@@ -11097,12 +12334,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -11116,12 +12353,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -11135,12 +12372,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
@@ -11154,12 +12391,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -11173,11 +12410,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
@@ -11185,7 +12429,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -11193,7 +12437,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -11201,7 +12445,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -11213,12 +12457,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -11232,12 +12476,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -11246,14 +12490,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -11262,7 +12506,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -11274,7 +12518,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -11282,7 +12526,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -11296,7 +12540,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -11308,91 +12552,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
   <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -11402,11 +12570,76 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
@@ -11422,36 +12655,51 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -11461,7 +12709,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -11473,25 +12721,26 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -11499,7 +12748,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -11515,7 +12764,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -11524,7 +12773,7 @@
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -11539,7 +12788,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -11550,7 +12799,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -11564,12 +12813,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -11583,12 +12832,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -11602,7 +12851,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:noFill/>
@@ -11616,12 +12865,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -11635,12 +12884,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -11654,12 +12903,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
@@ -11673,12 +12922,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -11692,11 +12941,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
@@ -11704,7 +12960,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -11712,7 +12968,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -11720,7 +12976,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -11732,12 +12988,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -11751,12 +13007,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -11765,14 +13021,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -11781,7 +13037,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -11793,7 +13049,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -11801,7 +13057,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -11815,7 +13071,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -11827,91 +13083,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
   <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -11921,11 +13101,76 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
@@ -11941,36 +13186,51 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -11980,7 +13240,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -11992,25 +13252,26 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -12018,7 +13279,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -12034,7 +13295,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -12043,7 +13304,7 @@
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -12058,7 +13319,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -12069,7 +13330,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -12083,12 +13344,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -12102,12 +13363,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -12121,7 +13382,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:noFill/>
@@ -12135,12 +13396,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -12154,12 +13415,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -12173,12 +13434,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
@@ -12192,12 +13453,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -12211,11 +13472,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
@@ -12223,7 +13491,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -12231,7 +13499,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -12239,7 +13507,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -12251,12 +13519,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -12270,12 +13538,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -12284,14 +13552,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -12300,7 +13568,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -12312,7 +13580,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -12320,7 +13588,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -12334,7 +13602,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -12346,91 +13614,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
   <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -12440,11 +13632,76 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
@@ -12460,36 +13717,51 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -12499,7 +13771,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -12511,25 +13783,26 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -12537,7 +13810,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -12553,7 +13826,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -12562,7 +13835,7 @@
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -12577,7 +13850,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -12588,7 +13861,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -12602,12 +13875,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -12621,12 +13894,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -12640,7 +13913,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:noFill/>
@@ -12654,12 +13927,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -12673,12 +13946,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -12692,12 +13965,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
@@ -12711,12 +13984,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -12730,11 +14003,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
@@ -12742,7 +14022,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -12750,7 +14030,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -12758,7 +14038,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -12770,12 +14050,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -12789,12 +14069,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -12803,14 +14083,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -12819,7 +14099,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -12831,7 +14111,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -12839,7 +14119,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -12853,7 +14133,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -12865,91 +14145,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
   <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -12959,11 +14163,76 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
@@ -12979,32 +14248,61 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -13016,33 +14314,34 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -13058,7 +14357,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -13067,7 +14366,7 @@
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -13082,7 +14381,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -13093,7 +14392,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -13107,12 +14406,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -13126,12 +14425,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -13145,7 +14444,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:noFill/>
@@ -13159,12 +14458,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -13178,12 +14477,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -13197,12 +14496,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
@@ -13216,12 +14515,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -13235,11 +14534,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
@@ -13247,7 +14553,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -13255,7 +14561,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -13263,7 +14569,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -13275,12 +14581,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -13294,12 +14600,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -13308,14 +14614,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -13324,7 +14630,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -13336,7 +14642,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -13344,7 +14650,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -13358,7 +14664,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -13370,20 +14676,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13394,7 +14694,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -13407,7 +14707,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -13424,7 +14724,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -13440,7 +14740,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -13484,20 +14784,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -13506,13 +14806,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -13524,10 +14824,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -13536,16 +14836,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -13587,23 +14888,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -13650,14 +14950,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -13708,8 +15002,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -13747,20 +15041,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -13773,6 +15067,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -13804,7 +15109,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -13813,14 +15118,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -13841,20 +15145,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -13875,20 +15178,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13899,7 +15196,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -13912,7 +15209,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -13929,7 +15226,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -13945,7 +15242,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -13989,20 +15286,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -14011,13 +15308,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -14029,10 +15326,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -14041,16 +15338,17 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -14092,23 +15390,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -14155,14 +15452,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -14213,8 +15504,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -14252,20 +15543,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -14278,6 +15569,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -14309,7 +15611,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -14318,14 +15620,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -14346,20 +15647,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -14380,14 +15680,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -14736,16 +16030,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14772,16 +16066,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>574675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>625475</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14844,16 +16138,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>631825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15087,8 +16381,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15394,37 +16688,40 @@
   <dimension ref="A2:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -15452,7 +16749,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -15518,18 +16815,18 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -15550,16 +16847,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -15578,30 +16875,30 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>27</v>
-      </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -15629,7 +16926,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -15695,18 +16992,18 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -15727,16 +17024,16 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
@@ -15755,30 +17052,30 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
         <v>23</v>
       </c>
-      <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" t="s">
-        <v>27</v>
-      </c>
       <c r="F43" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
@@ -15806,7 +17103,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
@@ -15872,18 +17169,18 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
@@ -15904,16 +17201,16 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D59" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
@@ -15941,8 +17238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1636C5F-CEE7-40E4-84BB-DF350837DDA9}">
   <dimension ref="A2:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" activeCellId="7" sqref="I4 I3 J3 J4 K3 K4 L3 L4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -15955,7 +17252,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
@@ -15972,16 +17269,16 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -16088,55 +17385,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC405B51-86C9-4C92-A463-353E118B9C8A}">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="P52" sqref="P52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="J1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" t="s">
         <v>76</v>
       </c>
-      <c r="E3" t="s">
+      <c r="M3" t="s">
         <v>77</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>78</v>
-      </c>
-      <c r="K3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.45">
@@ -16178,71 +17475,71 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.45">
       <c r="O9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" t="s">
+        <v>71</v>
+      </c>
+      <c r="O11" t="s">
         <v>74</v>
       </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>75</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" t="s">
+        <v>77</v>
+      </c>
+      <c r="S11" t="s">
         <v>78</v>
-      </c>
-      <c r="P11" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>80</v>
-      </c>
-      <c r="R11" t="s">
-        <v>81</v>
-      </c>
-      <c r="S11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.45">
@@ -16308,108 +17605,108 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
         <v>42</v>
       </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
         <v>43</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
         <v>44</v>
       </c>
-      <c r="H16" t="s">
+      <c r="K16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" t="s">
         <v>46</v>
       </c>
-      <c r="I16" t="s">
+      <c r="M16" t="s">
         <v>47</v>
       </c>
-      <c r="J16" t="s">
+      <c r="N16" t="s">
         <v>48</v>
       </c>
-      <c r="K16" t="s">
+      <c r="O16" t="s">
         <v>49</v>
       </c>
-      <c r="L16" t="s">
+      <c r="P16" t="s">
         <v>50</v>
       </c>
-      <c r="M16" t="s">
+      <c r="Q16" t="s">
         <v>51</v>
       </c>
-      <c r="N16" t="s">
+      <c r="R16" t="s">
         <v>52</v>
       </c>
-      <c r="O16" t="s">
+      <c r="S16" t="s">
         <v>53</v>
       </c>
-      <c r="P16" t="s">
+      <c r="T16" t="s">
         <v>54</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="U16" t="s">
         <v>55</v>
       </c>
-      <c r="R16" t="s">
+      <c r="V16" t="s">
         <v>56</v>
       </c>
-      <c r="S16" t="s">
+      <c r="W16" t="s">
         <v>57</v>
       </c>
-      <c r="T16" t="s">
+      <c r="X16" t="s">
         <v>58</v>
       </c>
-      <c r="U16" t="s">
+      <c r="Y16" t="s">
         <v>59</v>
       </c>
-      <c r="V16" t="s">
+      <c r="Z16" t="s">
         <v>60</v>
       </c>
-      <c r="W16" t="s">
+      <c r="AA16" t="s">
         <v>61</v>
       </c>
-      <c r="X16" t="s">
+      <c r="AB16" t="s">
         <v>62</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="AC16" t="s">
         <v>63</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AD16" t="s">
         <v>64</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AE16" t="s">
         <v>65</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AF16" t="s">
         <v>66</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AG16" t="s">
         <v>67</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.45">
@@ -16515,22 +17812,22 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
         <v>78</v>
       </c>
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" t="s">
-        <v>82</v>
-      </c>
       <c r="X19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.45">
@@ -16555,24 +17852,24 @@
         <v>1.1547823073976431</v>
       </c>
       <c r="X20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.45">
       <c r="X21" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s">
         <v>78</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.45">

--- a/문서/Result_ALL.xlsx
+++ b/문서/Result_ALL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Documents\GitHub\DT_FINAL_Project\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Naver MYBOX\Cording Study\Kosa\Code\C++\WAiSER Use Project\최종 프로젝트\DT_FINAL_Project\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18D904E-24E9-4F5F-94F6-BE303C18EA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E47EEFA-3FFB-4E3B-8022-62091805C39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Result_ALL" sheetId="4" r:id="rId1"/>
@@ -2066,369 +2066,6 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>1 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>설비</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>종류</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>별 버퍼 평균</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'Buf Count Avg'!$J$2:$N$3</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="5"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>GEN.AVG</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>TRACK.AVG</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>PROC.AVG</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>STOCK.AVG</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>TOTAL.AVG</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>설비</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Buf Count Avg'!$J$4:$N$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.27183406100000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55052741350000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4643188139999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.7639257289999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.012651504375</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4927-4840-8F8B-E1CC76E10C64}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="124423071"/>
-        <c:axId val="125193055"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="124423071"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="125193055"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="125193055"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="124423071"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>시나리오 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>3 </a:t>
             </a:r>
             <a:r>
@@ -2902,7 +2539,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -3238,7 +2875,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -3601,7 +3238,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -3948,6 +3585,339 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>시나리오 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>1 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>설비</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>종류별 버퍼 평균</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Buf Count Avg'!$J$3:$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>GEN.AVG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TRACK.AVG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PROC.AVG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>STOCK.AVG</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TOTAL.AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Buf Count Avg'!$J$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.27183406100000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55052741350000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4643188139999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7639257289999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.012651504375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB0D-42A7-830B-2859AF0B79CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="1671762495"/>
+        <c:axId val="1671093439"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1671762495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1671093439"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1671093439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1671762495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -4458,6 +4428,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A2FF-4A56-AAF3-93AE8E881688}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4477,6 +4452,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A2FF-4A56-AAF3-93AE8E881688}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4496,6 +4476,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A2FF-4A56-AAF3-93AE8E881688}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -4515,6 +4500,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A2FF-4A56-AAF3-93AE8E881688}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -9832,7 +9822,7 @@
 </file>
 
 <file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9938,7 +9928,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -9948,7 +9938,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -9958,7 +9948,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -9978,7 +9968,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -9989,7 +9979,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -9997,7 +9987,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10334,7 +10324,7 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10440,7 +10430,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -10450,7 +10440,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -10460,7 +10450,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -10480,7 +10470,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -10491,7 +10481,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -10499,7 +10489,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -11840,33 +11830,27 @@
 </file>
 
 <file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -11889,7 +11873,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -11904,10 +11888,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -11916,9 +11897,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -11944,9 +11924,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -11954,9 +11934,9 @@
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -11964,12 +11944,12 @@
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -11978,34 +11958,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -12021,21 +11999,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -12069,120 +12042,117 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -12191,10 +12161,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
@@ -12203,7 +12170,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -12211,7 +12178,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -12219,15 +12186,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -12242,17 +12206,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -12261,12 +12225,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -12275,13 +12236,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -12290,10 +12252,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -12302,7 +12261,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -12323,10 +12282,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -12335,7 +12291,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -17010,42 +16966,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="차트 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92240528-1648-CEB1-8842-EB7FD81ECA53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>631825</xdr:colOff>
       <xdr:row>40</xdr:row>
@@ -17074,7 +16994,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17110,7 +17030,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17146,7 +17066,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17171,6 +17091,42 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568C4036-C1BB-2BF9-778B-865829B6AC93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="차트 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CEBBF30-B8E8-A212-466C-B206603E6AB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17230,34 +17186,6 @@
           </cell>
           <cell r="F4">
             <v>1</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>GEN</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>TRACK</v>
-          </cell>
-          <cell r="E23" t="str">
-            <v>PROC</v>
-          </cell>
-          <cell r="F23" t="str">
-            <v>STOCK</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>3</v>
-          </cell>
-          <cell r="D24">
-            <v>6</v>
-          </cell>
-          <cell r="E24">
-            <v>2</v>
-          </cell>
-          <cell r="F24">
-            <v>2</v>
           </cell>
         </row>
         <row r="43">
@@ -17595,8 +17523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D4D23E-0EB1-4402-9ED8-13A029C3A06D}">
   <dimension ref="A2:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView topLeftCell="C34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -18316,8 +18244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC405B51-86C9-4C92-A463-353E118B9C8A}">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="P52" sqref="P52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/문서/Result_ALL.xlsx
+++ b/문서/Result_ALL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Naver MYBOX\Cording Study\Kosa\Code\C++\WAiSER Use Project\최종 프로젝트\DT_FINAL_Project\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E47EEFA-3FFB-4E3B-8022-62091805C39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE49A84-37F3-4D6F-80B1-7BC1BA3D4CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="95">
   <si>
     <t>INIT TIME</t>
   </si>
@@ -399,6 +399,10 @@
     <t>Product Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>State Avg Rate4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -883,6 +887,357 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>1 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>버퍼 평균</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Buf Count Avg'!$A$3,'Buf Count Avg'!$B$3,'Buf Count Avg'!$C$3,'Buf Count Avg'!$D$3,'Buf Count Avg'!$E$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>GEN0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>TRACK1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TRACK2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PROC3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>STOCK4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Buf Count Avg'!$A$4,'Buf Count Avg'!$B$4,'Buf Count Avg'!$C$4,'Buf Count Avg'!$D$4,'Buf Count Avg'!$E$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.27183406100000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.592795615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50825921200000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4643188139999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7639257289999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F89A-4DE3-9196-6ABF726BF9F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="115"/>
+        <c:overlap val="-20"/>
+        <c:axId val="209838831"/>
+        <c:axId val="203035199"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="209838831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="203035199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="203035199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="209838831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>시나리오 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>2 </a:t>
             </a:r>
             <a:r>
@@ -1243,7 +1598,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -1643,7 +1998,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -2027,7 +2382,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -2539,7 +2894,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -2875,7 +3230,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -3238,7 +3593,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -3611,7 +3966,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -6768,9 +7123,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -6782,15 +7137,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ko-KR"/>
-              <a:t>시나리오 </a:t>
+              <a:t>시나리오</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>1 </a:t>
+              <a:t>4 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ko-KR"/>
-              <a:t>버퍼 평균</a:t>
+              <a:t>설비 상태 비율</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6808,9 +7163,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -6827,225 +7182,398 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
               <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>('Buf Count Avg'!$A$3,'Buf Count Avg'!$B$3,'Buf Count Avg'!$C$3,'Buf Count Avg'!$D$3,'Buf Count Avg'!$E$3)</c:f>
+              <c:f>'State Avg Rate'!$H$11:$K$11</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>GEN0</c:v>
+                  <c:v>INIT TIME</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TRACK1</c:v>
+                  <c:v>ACTIVE TIME</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TRACK2</c:v>
+                  <c:v>ERROR TIME</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>PROC3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>STOCK4</c:v>
+                  <c:v>PAUSE TIME</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Buf Count Avg'!$A$4,'Buf Count Avg'!$B$4,'Buf Count Avg'!$C$4,'Buf Count Avg'!$D$4,'Buf Count Avg'!$E$4)</c:f>
+              <c:f>'State Avg Rate'!$H$12:$K$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.27183406100000002</c:v>
+                  <c:v>2.7285699999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.592795615</c:v>
+                  <c:v>70.717100000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50825921200000002</c:v>
+                  <c:v>4.2085699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4643188139999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.7639257289999999</c:v>
+                  <c:v>22.345700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F89A-4DE3-9196-6ABF726BF9F1}"/>
+              <c16:uniqueId val="{00000016-F89B-4DA5-82AA-56B8654C04AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-F89B-4DA5-82AA-56B8654C04AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-F89B-4DA5-82AA-56B8654C04AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-F89B-4DA5-82AA-56B8654C04AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-F89B-4DA5-82AA-56B8654C04AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'State Avg Rate'!$A$11:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>INIT TIME</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ACTIVE TIME</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ERROR TIME</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAUSE TIME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'State Avg Rate'!$A$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.62121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.293899999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9939399999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.090900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-F89B-4DA5-82AA-56B8654C04AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="209838831"/>
-        <c:axId val="203035199"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="209838831"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="203035199"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="203035199"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="209838831"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -7054,24 +7582,59 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -7458,6 +8021,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8812,7 +9415,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8823,7 +9426,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -8836,7 +9439,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -8853,7 +9456,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -8869,7 +9472,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -8913,1022 +9516,12 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -9938,7 +9531,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -9948,7 +9541,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -9968,7 +9561,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -9979,7 +9572,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -9987,7 +9580,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10323,8 +9916,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10335,7 +9928,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -10348,7 +9941,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -10365,7 +9958,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -10381,7 +9974,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -10425,12 +10018,1022 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
@@ -10440,7 +11043,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -10450,7 +11053,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="34925" cap="rnd">
@@ -10470,7 +11073,7 @@
     </cs:fillRef>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
@@ -10481,7 +11084,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -10489,7 +11092,7 @@
     <cs:fillRef idx="3"/>
     <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -11830,6 +12433,508 @@
 </file>
 
 <file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16015,78 +17120,8 @@
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
   <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -16096,11 +17131,76 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
@@ -16116,35 +17216,64 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -16153,34 +17282,34 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -16196,7 +17325,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -16205,7 +17334,7 @@
       <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -16225,17 +17354,18 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -16244,12 +17374,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -16263,12 +17393,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -16282,20 +17412,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -16309,12 +17445,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -16328,14 +17464,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -16347,12 +17483,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -16366,27 +17502,34 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -16394,22 +17537,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -16417,12 +17549,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -16436,12 +17568,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -16450,13 +17582,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -16465,7 +17598,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -16483,13 +17616,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -16498,7 +17632,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -16510,7 +17644,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -16810,6 +17944,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="차트 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AAED18D-A066-EC67-44CB-CBCA1372FB9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17523,8 +18693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D4D23E-0EB1-4402-9ED8-13A029C3A06D}">
   <dimension ref="A2:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="C34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -18097,8 +19267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1636C5F-CEE7-40E4-84BB-DF350837DDA9}">
   <dimension ref="A2:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -18204,6 +19374,9 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -18218,6 +19391,18 @@
       <c r="D11" t="s">
         <v>3</v>
       </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
@@ -18231,6 +19416,18 @@
       </c>
       <c r="D12">
         <v>24.090900000000001</v>
+      </c>
+      <c r="H12">
+        <v>2.7285699999999999</v>
+      </c>
+      <c r="I12">
+        <v>70.717100000000002</v>
+      </c>
+      <c r="J12">
+        <v>4.2085699999999999</v>
+      </c>
+      <c r="K12">
+        <v>22.345700000000001</v>
       </c>
     </row>
   </sheetData>
@@ -18244,8 +19441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC405B51-86C9-4C92-A463-353E118B9C8A}">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/문서/Result_ALL.xlsx
+++ b/문서/Result_ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Naver MYBOX\Cording Study\Kosa\Code\C++\WAiSER Use Project\최종 프로젝트\DT_FINAL_Project\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE49A84-37F3-4D6F-80B1-7BC1BA3D4CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E045B3ED-C081-4952-B6C9-B8298DB3CAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Result_ALL" sheetId="4" r:id="rId1"/>
@@ -7205,6 +7205,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5AD6-45DA-8002-745EB4DF3662}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -7224,6 +7229,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5AD6-45DA-8002-745EB4DF3662}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -7243,6 +7253,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5AD6-45DA-8002-745EB4DF3662}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -7262,6 +7277,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5AD6-45DA-8002-745EB4DF3662}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -19267,7 +19287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1636C5F-CEE7-40E4-84BB-DF350837DDA9}">
   <dimension ref="A2:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
@@ -19441,7 +19461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC405B51-86C9-4C92-A463-353E118B9C8A}">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>

--- a/문서/Result_ALL.xlsx
+++ b/문서/Result_ALL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Naver MYBOX\Cording Study\Kosa\Code\C++\WAiSER Use Project\최종 프로젝트\DT_FINAL_Project\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Documents\GitHub\DT_FINAL_Project\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E045B3ED-C081-4952-B6C9-B8298DB3CAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC8D0E0-37C8-4E2C-B6F6-EEB5BEA67128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Result_ALL" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="104">
   <si>
     <t>INIT TIME</t>
   </si>
@@ -79,14 +79,6 @@
   </si>
   <si>
     <t>TRACK2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buf Count1 Avg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buf Count2 Avg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -165,10 +157,6 @@
   </si>
   <si>
     <t>Scnario 3 RESULT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buf Count 3 Avg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -336,10 +324,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TOTAL.AVG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>STOCK Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,6 +385,54 @@
   </si>
   <si>
     <t>State Avg Rate4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>project_id</t>
+  </si>
+  <si>
+    <t>object_id</t>
+  </si>
+  <si>
+    <t>object_type</t>
+  </si>
+  <si>
+    <t>buffer_count</t>
+  </si>
+  <si>
+    <t>시나리오 1 세부설비별 버퍼 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오2 세부설비별 버퍼 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오 3 세부설비별 버퍼 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오 4 세부설비별 버퍼 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시나리오 4 설비별 버퍼 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROC31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK34</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -869,7 +901,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -882,16 +914,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR"/>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
               <a:t>시나리오 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
               <a:t>1 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>버퍼 평균</a:t>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>세부설비별 버퍼 평균</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -909,7 +941,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -929,54 +961,25 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>('Buf Count Avg'!$A$3,'Buf Count Avg'!$B$3,'Buf Count Avg'!$C$3,'Buf Count Avg'!$D$3,'Buf Count Avg'!$E$3)</c:f>
+              <c:f>('Buf Count Avg'!$L$3,'Buf Count Avg'!$L$4,'Buf Count Avg'!$L$5,'Buf Count Avg'!$L$6,'Buf Count Avg'!$L$7)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -999,31 +1002,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Buf Count Avg'!$A$4,'Buf Count Avg'!$B$4,'Buf Count Avg'!$C$4,'Buf Count Avg'!$D$4,'Buf Count Avg'!$E$4)</c:f>
+              <c:f>('Buf Count Avg'!$M$3,'Buf Count Avg'!$M$4,'Buf Count Avg'!$M$5,'Buf Count Avg'!$M$6,'Buf Count Avg'!$M$7)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.27183406100000002</c:v>
+                  <c:v>0.26732673299999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.592795615</c:v>
+                  <c:v>0.76537911300000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.50825921200000002</c:v>
+                  <c:v>0.65052631599999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4643188139999999</c:v>
+                  <c:v>3.5222222219999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7639257289999999</c:v>
+                  <c:v>3.7659574469999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F89A-4DE3-9196-6ABF726BF9F1}"/>
+              <c16:uniqueId val="{00000000-C8C3-45D3-B7C8-F4CA0B8E5DAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1035,25 +1038,25 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="209838831"/>
-        <c:axId val="203035199"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1222418912"/>
+        <c:axId val="1371645344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209838831"/>
+        <c:axId val="1222418912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1084,7 +1087,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203035199"/>
+        <c:crossAx val="1371645344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1092,12 +1095,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203035199"/>
+        <c:axId val="1371645344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1143,7 +1146,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="209838831"/>
+        <c:crossAx val="1222418912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1220,7 +1223,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1233,16 +1236,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR"/>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
               <a:t>시나리오 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>2 </a:t>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>1 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>버퍼 평균</a:t>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>설비별 버퍼 평균</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1260,7 +1263,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1280,149 +1283,66 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>('Buf Count Avg'!$A$11,'Buf Count Avg'!$B$11,'Buf Count Avg'!$C$11,'Buf Count Avg'!$D$11,'Buf Count Avg'!$E$11,'Buf Count Avg'!$F$11,'Buf Count Avg'!$G$11,'Buf Count Avg'!$H$11,'Buf Count Avg'!$I$11,'Buf Count Avg'!$J$11,'Buf Count Avg'!$K$11,'Buf Count Avg'!$L$11,'Buf Count Avg'!$M$11)</c:f>
+              <c:f>('Buf Count Avg'!$A$3,'Buf Count Avg'!$B$3,'Buf Count Avg'!$C$3,'Buf Count Avg'!$D$3)</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>GEN0</c:v>
+                  <c:v>GEN.AVG</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>GEN1</c:v>
+                  <c:v>TRACK.AVG</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>GEN2</c:v>
+                  <c:v>PROC.AVG</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TRACK3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TRACK4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>TRACK5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>TRACK6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TRACK7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>TRACK8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>PROC9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>PROC10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>STOCK11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>STOCK12</c:v>
+                  <c:v>STOCK.AVG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Buf Count Avg'!$A$12,'Buf Count Avg'!$B$12,'Buf Count Avg'!$C$12,'Buf Count Avg'!$D$12,'Buf Count Avg'!$E$12,'Buf Count Avg'!$F$12,'Buf Count Avg'!$G$12,'Buf Count Avg'!$H$12,'Buf Count Avg'!$I$12,'Buf Count Avg'!$J$12,'Buf Count Avg'!$K$12,'Buf Count Avg'!$L$12,'Buf Count Avg'!$M$12)</c:f>
+              <c:f>('Buf Count Avg'!$A$4,'Buf Count Avg'!$B$4,'Buf Count Avg'!$C$4,'Buf Count Avg'!$D$4)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.129151292</c:v>
+                  <c:v>0.26732673299999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.129552789</c:v>
+                  <c:v>0.71890971039182205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14778856500000001</c:v>
+                  <c:v>3.5222222222222199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36701797899999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27695167300000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.12705882399999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.218629715</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.16981132099999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16910229600000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.630336352</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.79164961099999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.54641909799999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.53846153799999996</c:v>
+                  <c:v>3.76595744680851</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-479C-4495-A267-242D30E26490}"/>
+              <c16:uniqueId val="{00000000-51DB-4CA9-BBD4-95F9E1174CFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1434,25 +1354,25 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="203074063"/>
-        <c:axId val="41477231"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1137481184"/>
+        <c:axId val="1371656384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203074063"/>
+        <c:axId val="1137481184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1483,7 +1403,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41477231"/>
+        <c:crossAx val="1371656384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1491,12 +1411,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41477231"/>
+        <c:axId val="1371656384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1542,7 +1462,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203074063"/>
+        <c:crossAx val="1137481184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1632,14 +1552,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Buf</a:t>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>시나리오 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> Count3 Avg-1</a:t>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>2 </a:t>
             </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>설비별 버퍼 평균</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1674,19 +1597,9 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13034514435695538"/>
-          <c:y val="0.19541666666666666"/>
-          <c:w val="0.82050218722659662"/>
-          <c:h val="0.68792468649752114"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -1704,126 +1617,48 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>('Buf Count Avg'!$A$16,'Buf Count Avg'!$B$16,'Buf Count Avg'!$C$16,'Buf Count Avg'!$D$16,'Buf Count Avg'!$E$16,'Buf Count Avg'!$F$16,'Buf Count Avg'!$G$16,'Buf Count Avg'!$H$16,'Buf Count Avg'!$I$16,'Buf Count Avg'!$J$16,'Buf Count Avg'!$K$16,'Buf Count Avg'!$L$16,'Buf Count Avg'!$M$16,'Buf Count Avg'!$N$16,'Buf Count Avg'!$O$16,'Buf Count Avg'!$P$16,'Buf Count Avg'!$Q$16)</c:f>
+              <c:f>('Buf Count Avg'!$A$9,'Buf Count Avg'!$B$9,'Buf Count Avg'!$C$9,'Buf Count Avg'!$D$9)</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>GEN0</c:v>
+                  <c:v>GEN.AVG</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>GEN1</c:v>
+                  <c:v>TRACK.AVG</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>GEN2</c:v>
+                  <c:v>PROC.AVG</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GEN3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GEN4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>GEN5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>GEN6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TRACK7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>TRACK8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>TRACK9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>TRACK10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TRACK11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>TRACK12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>TRACK13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>TRACK14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>TRACK15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>TRACK16</c:v>
+                  <c:v>STOCK.AVG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Buf Count Avg'!$A$17,'Buf Count Avg'!$B$17,'Buf Count Avg'!$C$17,'Buf Count Avg'!$D$17,'Buf Count Avg'!$E$17,'Buf Count Avg'!$F$17,'Buf Count Avg'!$G$17,'Buf Count Avg'!$H$17,'Buf Count Avg'!$I$17,'Buf Count Avg'!$J$17,'Buf Count Avg'!$K$17,'Buf Count Avg'!$L$17,'Buf Count Avg'!$M$17,'Buf Count Avg'!$N$17,'Buf Count Avg'!$O$17,'Buf Count Avg'!$P$17,'Buf Count Avg'!$Q$17)</c:f>
+              <c:f>('Buf Count Avg'!$A$10,'Buf Count Avg'!$B$10,'Buf Count Avg'!$C$10,'Buf Count Avg'!$D$10)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.188050314</c:v>
+                  <c:v>0.32281912272055202</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17641095000000001</c:v>
+                  <c:v>0.325846973734297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17651029400000001</c:v>
+                  <c:v>2.0394456289978602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18954659900000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1058315329999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2044534410000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1787406909999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.24551355499999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.47654018799999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.221297837</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.218853821</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.238240918</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.46993865000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.5895765470000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.14889529300000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.146757679</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.247487437</c:v>
+                  <c:v>0.54255319148936099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-78C5-483F-9FB4-F5AE978E49A4}"/>
+              <c16:uniqueId val="{00000000-2D87-4591-B15E-7D17D1F30839}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1835,17 +1670,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1196524720"/>
-        <c:axId val="1187336576"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1375315104"/>
+        <c:axId val="1207215984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1196524720"/>
+        <c:axId val="1375315104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1883,7 +1719,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187336576"/>
+        <c:crossAx val="1207215984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1891,12 +1727,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1187336576"/>
+        <c:axId val="1207215984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1942,7 +1778,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1196524720"/>
+        <c:crossAx val="1375315104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2032,14 +1868,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>Buf</a:t>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>시나리오 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> Count3  Avg-2</a:t>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>2 </a:t>
             </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>세부설비별 버퍼 평균</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2076,12 +1916,23 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Buf Count Avg'!$M$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>buffer_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2094,120 +1945,102 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>('Buf Count Avg'!$R$16,'Buf Count Avg'!$S$16,'Buf Count Avg'!$T$16,'Buf Count Avg'!$U$16,'Buf Count Avg'!$V$16,'Buf Count Avg'!$W$16,'Buf Count Avg'!$X$16,'Buf Count Avg'!$Y$16,'Buf Count Avg'!$Z$16,'Buf Count Avg'!$AA$16,'Buf Count Avg'!$AB$16,'Buf Count Avg'!$AC$16,'Buf Count Avg'!$AD$16,'Buf Count Avg'!$AE$16,'Buf Count Avg'!$AF$16,'Buf Count Avg'!$AG$16)</c:f>
+              <c:f>'Buf Count Avg'!$L$13:$L$25</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>TRACK17</c:v>
+                  <c:v>GEN0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TRACK18</c:v>
+                  <c:v>GEN1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>TRACK19</c:v>
+                  <c:v>GEN2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TRACK20</c:v>
+                  <c:v>TRACK3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TRACK21</c:v>
+                  <c:v>TRACK4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>TRACK22</c:v>
+                  <c:v>TRACK5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>TRACK23</c:v>
+                  <c:v>TRACK6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>TRACK24</c:v>
+                  <c:v>TRACK7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>TRACK25</c:v>
+                  <c:v>TRACK8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>PROC26</c:v>
+                  <c:v>PROC9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>PROC27</c:v>
+                  <c:v>PROC10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>PROC28</c:v>
+                  <c:v>STOCK11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>PROC29</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>PROC30</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>STOCK31</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>STOCK32</c:v>
+                  <c:v>STOCK12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Buf Count Avg'!$R$17,'Buf Count Avg'!$S$17,'Buf Count Avg'!$T$17,'Buf Count Avg'!$U$17,'Buf Count Avg'!$V$17,'Buf Count Avg'!$W$17,'Buf Count Avg'!$X$17,'Buf Count Avg'!$Y$17,'Buf Count Avg'!$Z$17,'Buf Count Avg'!$AA$17,'Buf Count Avg'!$AB$17,'Buf Count Avg'!$AC$17,'Buf Count Avg'!$AD$17,'Buf Count Avg'!$AE$17,'Buf Count Avg'!$AF$17,'Buf Count Avg'!$AG$17)</c:f>
+              <c:f>'Buf Count Avg'!$M$13:$M$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.13610038599999999</c:v>
+                  <c:v>0.30501392757660101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.293300654</c:v>
+                  <c:v>0.30319888734353201</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5087235999999999</c:v>
+                  <c:v>0.36824324324324298</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.174022699</c:v>
+                  <c:v>0.33396946564885399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4112994350000001</c:v>
+                  <c:v>0.33333333333333298</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6050420169999999</c:v>
+                  <c:v>0.31384015594541897</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5841081990000001</c:v>
+                  <c:v>0.45979899497487398</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16403785500000001</c:v>
+                  <c:v>0.24251497005987999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15047021899999999</c:v>
+                  <c:v>0.24324324324324301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9658022869999998</c:v>
+                  <c:v>2.7787934186471599</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6167621780000001</c:v>
+                  <c:v>1.0051150895140599</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.42044833199999998</c:v>
+                  <c:v>0.54787234042553101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.72311828</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.5992996499999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.27586206899999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.32095490700000001</c:v>
+                  <c:v>0.53723404255319096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-650B-4FF7-9E96-2CF798A63F8B}"/>
+              <c16:uniqueId val="{00000000-CBF7-4DE2-BA7F-F14FA61789DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2219,17 +2052,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="1195620768"/>
-        <c:axId val="1199775328"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1373600432"/>
+        <c:axId val="1392289904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1195620768"/>
+        <c:axId val="1373600432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2267,7 +2101,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1199775328"/>
+        <c:crossAx val="1392289904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2275,12 +2109,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1199775328"/>
+        <c:axId val="1392289904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2326,7 +2160,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1195620768"/>
+        <c:crossAx val="1373600432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2403,7 +2237,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2416,16 +2250,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR"/>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
               <a:t>시나리오 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
               <a:t>3 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>버퍼 평균</a:t>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>설비별 버퍼 평균</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2443,7 +2277,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2470,262 +2304,59 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Buf Count Avg'!$A$16:$AG$16</c:f>
+              <c:f>('Buf Count Avg'!$A$15,'Buf Count Avg'!$B$15,'Buf Count Avg'!$C$15,'Buf Count Avg'!$D$15)</c:f>
               <c:strCache>
-                <c:ptCount val="33"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>GEN0</c:v>
+                  <c:v>GEN.AVG</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>GEN1</c:v>
+                  <c:v>TRACK.AVG</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>GEN2</c:v>
+                  <c:v>PROC.AVG</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GEN3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>GEN4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>GEN5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>GEN6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TRACK7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>TRACK8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>TRACK9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>TRACK10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TRACK11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>TRACK12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>TRACK13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>TRACK14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>TRACK15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>TRACK16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>TRACK17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>TRACK18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>TRACK19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>TRACK20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>TRACK21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>TRACK22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>TRACK23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>TRACK24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>TRACK25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>PROC26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>PROC27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>PROC28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>PROC29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>PROC30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>STOCK31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>STOCK32</c:v>
+                  <c:v>STOCK.AVG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Buf Count Avg'!$A$17:$AG$17</c:f>
+              <c:f>('Buf Count Avg'!$A$16,'Buf Count Avg'!$B$16,'Buf Count Avg'!$C$16,'Buf Count Avg'!$D$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.188050314</c:v>
+                  <c:v>0.89036742800397195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17641095000000001</c:v>
+                  <c:v>0.66317307692307603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17651029400000001</c:v>
+                  <c:v>2.5111287758346501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18954659900000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1058315329999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2044534410000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1787406909999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.24551355499999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.47654018799999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.221297837</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.218853821</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.238240918</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.46993865000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.5895765470000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.14889529300000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.146757679</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.247487437</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.13610038599999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.293300654</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5087235999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.174022699</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.4112994350000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.6050420169999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.5841081990000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.16403785500000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.15047021899999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.9658022869999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.6167621780000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.42044833199999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.72311828</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.5992996499999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.27586206899999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.32095490700000001</c:v>
+                  <c:v>0.29787234042553101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6E40-440F-9844-AFD60F0FEA94}"/>
+              <c16:uniqueId val="{00000000-CE6D-4C79-A3CC-8D020BAD3C0B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2737,13 +2368,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="576810031"/>
-        <c:axId val="58582639"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1393727312"/>
+        <c:axId val="1392290864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="576810031"/>
+        <c:axId val="1393727312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2755,7 +2386,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2786,7 +2417,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58582639"/>
+        <c:crossAx val="1392290864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2794,7 +2425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58582639"/>
+        <c:axId val="1392290864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,7 +2476,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="576810031"/>
+        <c:crossAx val="1393727312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2859,6 +2490,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2915,7 +2553,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2928,9 +2566,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>총 버퍼 평균</a:t>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>시나리오 </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>3 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>세부설비별 버퍼 평균</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2947,7 +2602,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2967,101 +2622,240 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Buf Count Avg'!$A$19:$E$19</c:f>
+              <c:f>'Buf Count Avg'!$S$3:$S$35</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>GEN.AVG</c:v>
+                  <c:v>GEN0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TRACK.AVG</c:v>
+                  <c:v>GEN1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>PROC.AVG</c:v>
+                  <c:v>GEN2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>STOCK.AVG</c:v>
+                  <c:v>GEN3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TOTAL.AVG</c:v>
+                  <c:v>GEN4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GEN5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GEN6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TRACK7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TRACK8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TRACK9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>TRACK10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>TRACK11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>TRACK12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>TRACK13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>TRACK14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>TRACK15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>TRACK16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>TRACK17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>TRACK18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>TRACK19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>TRACK20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>TRACK21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>TRACK22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>TRACK23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>TRACK24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>TRACK25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>PROC26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>PROC27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>PROC28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>PROC29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>PROC30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>STOCK31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>STOCK32</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Buf Count Avg'!$A$20:$E$20</c:f>
+              <c:f>'Buf Count Avg'!$T$3:$T$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0.71798822990909095</c:v>
+                  <c:v>0.20951302378255901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53554939348148156</c:v>
+                  <c:v>0.24231242312423101</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2764669379999996</c:v>
+                  <c:v>0.24294478527607299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0891246682</c:v>
+                  <c:v>0.21225879682179299</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1547823073976431</c:v>
+                  <c:v>2.2173913043478199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.30196078431372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.275390625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34543325526932001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.451693851944793</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34270414993306503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.341789052069425</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34547591069330202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.451572327044025</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6494845360824699</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.223985890652557</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.245283018867924</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.180869565217391</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3516260162601601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.69868995633187</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.25064599483204097</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4683908045977001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6838709677419299</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.67096774193548</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.17004048582995901</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.16867469879517999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0482573726541502</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6822429906542</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.49448123620308998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.90835579514824705</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.6812652068126499</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.27659574468085102</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31914893617021201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1173-4969-B16D-583807E44E14}"/>
+              <c16:uniqueId val="{00000000-4A09-4443-994C-D4570D6CAC36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3073,25 +2867,25 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="570063391"/>
-        <c:axId val="124000431"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1395521248"/>
+        <c:axId val="1392328304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="570063391"/>
+        <c:axId val="1395521248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -3122,7 +2916,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124000431"/>
+        <c:crossAx val="1392328304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3130,12 +2924,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124000431"/>
+        <c:axId val="1392328304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3181,7 +2975,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="570063391"/>
+        <c:crossAx val="1395521248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3195,6 +2989,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3251,7 +3052,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3264,29 +3065,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>시나리오</a:t>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>시나리오 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>2 </a:t>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>4 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>설비</a:t>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>세부설비별 버퍼 평균</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>종류</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>별 버퍼 평균</a:t>
-            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3303,7 +3101,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3323,101 +3121,252 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>('Buf Count Avg'!$O$11,'Buf Count Avg'!$P$11,'Buf Count Avg'!$Q$11,'Buf Count Avg'!$R$11,'Buf Count Avg'!$S$11)</c:f>
+              <c:f>'Buf Count Avg'!$Y$3:$Y$37</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>GEN.AVG</c:v>
+                  <c:v>GEN0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>TRACK.AVG</c:v>
+                  <c:v>GEN1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>PROC.AVG</c:v>
+                  <c:v>GEN2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>STOCK.AVG</c:v>
+                  <c:v>GEN3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>TOTAL.AVG</c:v>
+                  <c:v>GEN4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>GEN5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GEN6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>TRACK7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>TRACK8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>TRACK9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>TRACK10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>TRACK11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>TRACK12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>TRACK13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>TRACK14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>TRACK15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>TRACK16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>TRACK17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>TRACK18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>TRACK19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>TRACK20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>TRACK21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>TRACK22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>TRACK23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>TRACK24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>TRACK25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>TRACK26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>PROC27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>PROC28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>PROC29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>PROC30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>PROC31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>STOCK32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>STOCK33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>STOCK34</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Buf Count Avg'!$O$12,'Buf Count Avg'!$P$12,'Buf Count Avg'!$Q$12,'Buf Count Avg'!$R$12,'Buf Count Avg'!$S$12)</c:f>
+              <c:f>'Buf Count Avg'!$Z$3:$Z$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.13549754866666666</c:v>
+                  <c:v>0.218713450292397</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22142863466666665</c:v>
+                  <c:v>0.241798298906439</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7109929815</c:v>
+                  <c:v>0.244143033292231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.54244031799999992</c:v>
+                  <c:v>0.21754385964912201</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6525898707083333</c:v>
+                  <c:v>2.1635802469135799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2297297297297298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2601156069364099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33132530120481901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47111681643132203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.37071240105540898</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36671177266576399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.33012048192770999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.47232947232947198</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.65384615384615</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.22950819672131101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.246445497630331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26912181303116101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20900900900900901</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.40495867768595</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.70378619153674</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24806201550387499</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4516129032258001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.6688311688311599</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6659482758620601</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.12121212121212099</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.124463519313304</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.12121212121212099</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.1498127340823898</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.7011278195488702</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.485458612975391</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.90716180371352695</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6848635235731999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.20212765957446799</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.20212765957446799</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.19680851063829699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6A8C-4954-8FB8-D5495312A43A}"/>
+              <c16:uniqueId val="{00000000-AA7F-46D8-B5D1-031C28891FBC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3429,25 +3378,25 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="1595731296"/>
-        <c:axId val="1418671440"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1369717216"/>
+        <c:axId val="1392338864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1595731296"/>
+        <c:axId val="1369717216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -3478,7 +3427,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1418671440"/>
+        <c:crossAx val="1392338864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3486,12 +3435,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1418671440"/>
+        <c:axId val="1392338864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3537,7 +3486,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1595731296"/>
+        <c:crossAx val="1369717216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3614,7 +3563,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3627,29 +3576,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>시나리오</a:t>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>시나리오 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>3 </a:t>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>4 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>설비</a:t>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>설비별 버퍼 평균</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>종류</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>별 버퍼 평균</a:t>
-            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3666,7 +3612,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3684,68 +3630,29 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15852580927384077"/>
-          <c:y val="0.20467592592592593"/>
-          <c:w val="0.79509930008748908"/>
-          <c:h val="0.68792468649752114"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>('Buf Count Avg'!$X$21,'Buf Count Avg'!$Y$21,'Buf Count Avg'!$Z$21,'Buf Count Avg'!$AA$21,'Buf Count Avg'!$AB$21)</c:f>
+              <c:f>('Buf Count Avg'!$A$21,'Buf Count Avg'!$B$21,'Buf Count Avg'!$C$21,'Buf Count Avg'!$D$21)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>GEN.AVG</c:v>
                 </c:pt>
@@ -3757,40 +3664,34 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>STOCK.AVG</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TOTAL.AVG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>('Buf Count Avg'!$X$22,'Buf Count Avg'!$Y$22,'Buf Count Avg'!$Z$22,'Buf Count Avg'!$AA$22,'Buf Count Avg'!$AB$22)</c:f>
+              <c:f>('Buf Count Avg'!$A$22,'Buf Count Avg'!$B$22,'Buf Count Avg'!$C$22,'Buf Count Avg'!$D$22)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0313634031428571</c:v>
+                  <c:v>0.89481010141181105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63316878889473693</c:v>
+                  <c:v>0.66176470588235203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2650861454000002</c:v>
+                  <c:v>2.5531250000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29840848799999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0570067063593986</c:v>
+                  <c:v>0.200354609929078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C110-43EC-8557-A443C475AED2}"/>
+              <c16:uniqueId val="{00000000-71C8-4877-A1BE-203FC72DAA78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3802,25 +3703,25 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="115"/>
-        <c:overlap val="-20"/>
-        <c:axId val="1469831120"/>
-        <c:axId val="1600216112"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1389899984"/>
+        <c:axId val="1392323024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1469831120"/>
+        <c:axId val="1389899984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -3851,7 +3752,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1600216112"/>
+        <c:crossAx val="1392323024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3859,12 +3760,12 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1600216112"/>
+        <c:axId val="1392323024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3910,7 +3811,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1469831120"/>
+        <c:crossAx val="1389899984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3940,339 +3841,6 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>시나리오 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>1 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>설비</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>종류별 버퍼 평균</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Buf Count Avg'!$J$3:$N$3</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>GEN.AVG</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>TRACK.AVG</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>PROC.AVG</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>STOCK.AVG</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TOTAL.AVG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Buf Count Avg'!$J$4:$N$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.27183406100000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55052741350000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4643188139999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.7639257289999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.012651504375</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CB0D-42A7-830B-2859AF0B79CC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:axId val="1671762495"/>
-        <c:axId val="1671093439"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1671762495"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1671093439"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1671093439"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1671762495"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -8041,46 +7609,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8933,1011 +8461,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10141,23 +8665,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -10262,8 +8785,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -10395,20 +8918,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10441,8 +8963,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -10646,512 +9168,6 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -11214,8 +9230,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -11305,20 +9327,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -11331,17 +9353,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -11373,7 +9384,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -11382,13 +9393,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -11442,14 +9454,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11460,7 +9478,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -11473,7 +9491,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -11490,7 +9508,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -11506,7 +9524,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -11550,20 +9568,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -11572,13 +9590,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -11590,10 +9608,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -11602,17 +9620,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -11716,8 +9733,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -11807,20 +9830,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -11833,17 +9856,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -11875,7 +9887,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -11884,13 +9896,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -11944,14 +9957,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11962,7 +9981,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -11975,7 +9994,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -11992,7 +10011,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -12008,7 +10027,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -12052,20 +10071,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -12074,13 +10093,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -12092,10 +10111,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -12104,17 +10123,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -12218,8 +10236,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -12309,20 +10333,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -12335,17 +10359,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -12377,7 +10390,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -12386,13 +10399,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -12446,14 +10460,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="341">
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12464,7 +10484,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -12477,7 +10497,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -12494,7 +10514,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -12510,7 +10530,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -12554,20 +10574,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -12576,13 +10596,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -12594,10 +10614,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -12606,17 +10626,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -12720,8 +10739,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -12811,20 +10836,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -12837,17 +10862,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -12879,7 +10893,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -12888,13 +10902,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -12948,34 +10963,46 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="220">
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -12990,7 +11017,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -12998,7 +11025,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -13006,14 +11033,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -13022,8 +11052,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -13046,35 +11077,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -13083,32 +11114,33 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -13124,16 +11156,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -13167,17 +11204,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -13186,13 +11223,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -13204,20 +11242,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -13231,16 +11275,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -13249,17 +11294,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -13268,16 +11313,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -13286,24 +11332,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -13311,19 +11360,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -13331,17 +11372,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -13350,9 +11391,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -13361,14 +11405,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -13377,7 +11421,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -13386,7 +11433,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -13407,7 +11454,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -13416,8 +11466,1020 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -18013,22 +17075,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
+        <xdr:cNvPr id="13" name="차트 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD0B691-D9D5-C5FF-D9D8-0D1471ADF839}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1686DD-8CC1-49F7-D7F2-9E16CE9FAE6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18048,23 +17110,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>644525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>593725</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="차트 3">
+        <xdr:cNvPr id="15" name="차트 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8AE41A4-0359-D3C8-D29C-94343DA14CA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF667AEE-4B24-0185-3DEC-6F810FEB5319}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18084,23 +17146,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2">
+        <xdr:cNvPr id="16" name="차트 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57FC5B72-CD4C-B40C-5BBC-D4C6A7BED2A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BE606B7-918B-FEB2-6498-006C6F244BAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18120,23 +17182,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>625475</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="차트 4">
+        <xdr:cNvPr id="17" name="차트 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{920C8B1F-1A0F-04BD-A13D-AF6058A86BDB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA729815-E708-3D65-0DC6-024292578B24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18156,23 +17218,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>631825</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>555625</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="차트 8">
+        <xdr:cNvPr id="18" name="차트 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CBA9C0-1CE1-4A57-147B-65B00813DB24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75BE84A-5084-72E6-1685-BA96A7302FF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18192,23 +17254,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>549275</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>498475</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="차트 13">
+        <xdr:cNvPr id="19" name="차트 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C5669F-557A-8E16-0874-87BA3BACCCDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CA03076-64B7-906E-EF6C-CE4EC47C2A1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18228,23 +17290,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>650875</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>498475</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="차트 5">
+        <xdr:cNvPr id="21" name="차트 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B801351-0911-3F6B-2E4B-F2344A59524D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC33BFD-ED3A-12AC-5148-2C45658EB34A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18264,23 +17326,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>549275</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="차트 9">
+        <xdr:cNvPr id="22" name="차트 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568C4036-C1BB-2BF9-778B-865829B6AC93}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFF2A03A-F12F-CB26-FE8B-DC55AC60B8F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18293,42 +17355,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3175</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>612775</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="차트 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CEBBF30-B8E8-A212-466C-B206603E6AB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18721,33 +17747,33 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -18775,7 +17801,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -18841,18 +17867,18 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -18873,16 +17899,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>30</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
@@ -18901,30 +17927,30 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
@@ -18952,7 +17978,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
@@ -19018,32 +18044,32 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J33" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
         <v>26</v>
-      </c>
-      <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" t="s">
-        <v>28</v>
       </c>
       <c r="J35">
         <v>155</v>
@@ -19073,16 +18099,16 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" t="s">
         <v>29</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>30</v>
-      </c>
-      <c r="C39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
@@ -19101,30 +18127,30 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
         <v>19</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>20</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>21</v>
       </c>
-      <c r="D43" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" t="s">
-        <v>23</v>
-      </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G43" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
@@ -19152,7 +18178,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
@@ -19218,18 +18244,18 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
         <v>26</v>
-      </c>
-      <c r="B55" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
@@ -19250,16 +18276,16 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
         <v>29</v>
       </c>
-      <c r="B59" t="s">
+      <c r="D59" t="s">
         <v>30</v>
-      </c>
-      <c r="C59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
@@ -19287,7 +18313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1636C5F-CEE7-40E4-84BB-DF350837DDA9}">
   <dimension ref="A2:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
@@ -19318,16 +18344,16 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -19395,7 +18421,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -19459,515 +18485,1556 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC405B51-86C9-4C92-A463-353E118B9C8A}">
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="J38" workbookViewId="0">
+      <selection activeCell="X40" sqref="X40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="J1" t="s">
-        <v>82</v>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" t="s">
+        <v>94</v>
+      </c>
+      <c r="W2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3">
+        <v>0.26732673299999998</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3">
+        <v>0.20951302378255901</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>4</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3">
+        <v>0.218713450292397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0.26732673299999998</v>
+      </c>
+      <c r="B4">
+        <v>0.71890971039182205</v>
+      </c>
+      <c r="C4">
+        <v>3.5222222222222199</v>
+      </c>
+      <c r="D4">
+        <v>3.76595744680851</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>0.76537911300000006</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
-        <v>81</v>
+      <c r="T4">
+        <v>0.24231242312423101</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4">
+        <v>0.241798298906439</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>0.65052631599999999</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5">
+        <v>0.24294478527607299</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="X5">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z5">
+        <v>0.244143033292231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6">
+        <v>3.5222222219999999</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6">
+        <v>0.21225879682179299</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>3</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6">
+        <v>0.21754385964912201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7">
+        <v>3.7659574469999999</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7">
+        <v>2.2173913043478199</v>
+      </c>
+      <c r="V7">
+        <v>4</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="X7">
+        <v>4</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7">
+        <v>2.1635802469135799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8">
+        <v>2.30196078431372</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8">
+        <v>5</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z8">
+        <v>2.2297297297297298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>3</v>
+      </c>
+      <c r="R9">
+        <v>6</v>
+      </c>
+      <c r="S9" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9">
+        <v>2.275390625</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
+        <v>6</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z9">
+        <v>2.2601156069364099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>0.32281912272055202</v>
+      </c>
+      <c r="B10">
+        <v>0.325846973734297</v>
+      </c>
+      <c r="C10">
+        <v>2.0394456289978602</v>
+      </c>
+      <c r="D10">
+        <v>0.54255319148936099</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10">
+        <v>0.34543325526932001</v>
+      </c>
+      <c r="V10">
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>7</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z10">
+        <v>0.33132530120481901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>8</v>
+      </c>
+      <c r="S11" t="s">
+        <v>40</v>
+      </c>
+      <c r="T11">
+        <v>0.451693851944793</v>
+      </c>
+      <c r="V11">
+        <v>8</v>
+      </c>
+      <c r="W11">
+        <v>4</v>
+      </c>
+      <c r="X11">
+        <v>8</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11">
+        <v>0.47111681643132203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="J12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12">
+        <v>9</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12">
+        <v>9</v>
+      </c>
+      <c r="S12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12">
+        <v>0.34270414993306503</v>
+      </c>
+      <c r="V12">
+        <v>9</v>
+      </c>
+      <c r="W12">
+        <v>4</v>
+      </c>
+      <c r="X12">
+        <v>9</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z12">
+        <v>0.37071240105540898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>0.30501392757660101</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>10</v>
+      </c>
+      <c r="S13" t="s">
+        <v>42</v>
+      </c>
+      <c r="T13">
+        <v>0.341789052069425</v>
+      </c>
+      <c r="V13">
+        <v>10</v>
+      </c>
+      <c r="W13">
+        <v>4</v>
+      </c>
+      <c r="X13">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z13">
+        <v>0.36671177266576399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14">
+        <v>0.30319888734353201</v>
+      </c>
+      <c r="P14">
+        <v>11</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>11</v>
+      </c>
+      <c r="S14" t="s">
+        <v>43</v>
+      </c>
+      <c r="T14">
+        <v>0.34547591069330202</v>
+      </c>
+      <c r="V14">
+        <v>11</v>
+      </c>
+      <c r="W14">
+        <v>4</v>
+      </c>
+      <c r="X14">
+        <v>11</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z14">
+        <v>0.33012048192770999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>0.36824324324324298</v>
+      </c>
+      <c r="P15">
+        <v>12</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>12</v>
+      </c>
+      <c r="S15" t="s">
+        <v>44</v>
+      </c>
+      <c r="T15">
+        <v>0.451572327044025</v>
+      </c>
+      <c r="V15">
+        <v>12</v>
+      </c>
+      <c r="W15">
+        <v>4</v>
+      </c>
+      <c r="X15">
+        <v>12</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z15">
+        <v>0.47232947232947198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>0.89036742800397195</v>
+      </c>
+      <c r="B16">
+        <v>0.66317307692307603</v>
+      </c>
+      <c r="C16">
+        <v>2.5111287758346501</v>
+      </c>
+      <c r="D16">
+        <v>0.29787234042553101</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="M16">
+        <v>0.33396946564885399</v>
+      </c>
+      <c r="P16">
+        <v>13</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>13</v>
+      </c>
+      <c r="S16" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16">
+        <v>1.6494845360824699</v>
+      </c>
+      <c r="V16">
+        <v>13</v>
+      </c>
+      <c r="W16">
+        <v>4</v>
+      </c>
+      <c r="X16">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z16">
+        <v>1.65384615384615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="P17">
+        <v>14</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <v>14</v>
+      </c>
+      <c r="S17" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17">
+        <v>0.223985890652557</v>
+      </c>
+      <c r="V17">
+        <v>14</v>
+      </c>
+      <c r="W17">
+        <v>4</v>
+      </c>
+      <c r="X17">
+        <v>14</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z17">
+        <v>0.22950819672131101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18">
+        <v>0.31384015594541897</v>
+      </c>
+      <c r="P18">
+        <v>15</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>15</v>
+      </c>
+      <c r="S18" t="s">
+        <v>47</v>
+      </c>
+      <c r="T18">
+        <v>0.245283018867924</v>
+      </c>
+      <c r="V18">
+        <v>15</v>
+      </c>
+      <c r="W18">
+        <v>4</v>
+      </c>
+      <c r="X18">
+        <v>15</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z18">
+        <v>0.246445497630331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19">
+        <v>0.45979899497487398</v>
+      </c>
+      <c r="P19">
+        <v>16</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>16</v>
+      </c>
+      <c r="S19" t="s">
+        <v>48</v>
+      </c>
+      <c r="T19">
+        <v>0.25</v>
+      </c>
+      <c r="V19">
+        <v>16</v>
+      </c>
+      <c r="W19">
+        <v>4</v>
+      </c>
+      <c r="X19">
+        <v>16</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z19">
+        <v>0.26912181303116101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20">
+        <v>0.24251497005987999</v>
+      </c>
+      <c r="P20">
+        <v>17</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>17</v>
+      </c>
+      <c r="S20" t="s">
+        <v>49</v>
+      </c>
+      <c r="T20">
+        <v>0.180869565217391</v>
+      </c>
+      <c r="V20">
+        <v>17</v>
+      </c>
+      <c r="W20">
+        <v>4</v>
+      </c>
+      <c r="X20">
+        <v>17</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z20">
+        <v>0.20900900900900901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>8</v>
+      </c>
+      <c r="L21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21">
+        <v>0.24324324324324301</v>
+      </c>
+      <c r="P21">
+        <v>18</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>18</v>
+      </c>
+      <c r="S21" t="s">
+        <v>50</v>
+      </c>
+      <c r="T21">
+        <v>1.3516260162601601</v>
+      </c>
+      <c r="V21">
+        <v>18</v>
+      </c>
+      <c r="W21">
+        <v>4</v>
+      </c>
+      <c r="X21">
+        <v>18</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z21">
+        <v>1.40495867768595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>0.89481010141181105</v>
+      </c>
+      <c r="B22">
+        <v>0.66176470588235203</v>
+      </c>
+      <c r="C22">
+        <v>2.5531250000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.200354609929078</v>
+      </c>
+      <c r="I22">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22">
+        <v>2.7787934186471599</v>
+      </c>
+      <c r="P22">
+        <v>19</v>
+      </c>
+      <c r="Q22">
+        <v>3</v>
+      </c>
+      <c r="R22">
+        <v>19</v>
+      </c>
+      <c r="S22" t="s">
+        <v>51</v>
+      </c>
+      <c r="T22">
+        <v>1.69868995633187</v>
+      </c>
+      <c r="V22">
+        <v>19</v>
+      </c>
+      <c r="W22">
+        <v>4</v>
+      </c>
+      <c r="X22">
+        <v>19</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z22">
+        <v>1.70378619153674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I23">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" t="s">
-        <v>75</v>
-      </c>
-      <c r="L3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" t="s">
-        <v>78</v>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23" t="s">
+        <v>66</v>
+      </c>
+      <c r="M23">
+        <v>1.0051150895140599</v>
+      </c>
+      <c r="P23">
+        <v>20</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>20</v>
+      </c>
+      <c r="S23" t="s">
+        <v>52</v>
+      </c>
+      <c r="T23">
+        <v>0.25064599483204097</v>
+      </c>
+      <c r="V23">
+        <v>20</v>
+      </c>
+      <c r="W23">
+        <v>4</v>
+      </c>
+      <c r="X23">
+        <v>20</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z23">
+        <v>0.24806201550387499</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>0.27183406100000002</v>
-      </c>
-      <c r="B4">
-        <v>0.592795615</v>
-      </c>
-      <c r="C4">
-        <v>0.50825921200000002</v>
-      </c>
-      <c r="D4">
-        <v>3.4643188139999999</v>
-      </c>
-      <c r="E4">
-        <v>3.7639257289999999</v>
-      </c>
-      <c r="J4">
-        <f>A4</f>
-        <v>0.27183406100000002</v>
-      </c>
-      <c r="K4">
-        <f>AVERAGE(B4,C4)</f>
-        <v>0.55052741350000001</v>
-      </c>
-      <c r="L4">
-        <f>D4</f>
-        <v>3.4643188139999999</v>
-      </c>
-      <c r="M4">
-        <f>E4</f>
-        <v>3.7639257289999999</v>
-      </c>
-      <c r="N4">
-        <f>AVERAGE(J4:M4)</f>
-        <v>2.012651504375</v>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I24">
+        <v>11</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>11</v>
+      </c>
+      <c r="L24" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24">
+        <v>0.54787234042553101</v>
+      </c>
+      <c r="P24">
+        <v>21</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>21</v>
+      </c>
+      <c r="S24" t="s">
+        <v>53</v>
+      </c>
+      <c r="T24">
+        <v>1.4683908045977001</v>
+      </c>
+      <c r="V24">
+        <v>21</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+      <c r="X24">
+        <v>21</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z24">
+        <v>1.4516129032258001</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="O9" t="s">
-        <v>83</v>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="I25">
+        <v>12</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>12</v>
+      </c>
+      <c r="L25" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25">
+        <v>0.53723404255319096</v>
+      </c>
+      <c r="P25">
+        <v>22</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25">
+        <v>22</v>
+      </c>
+      <c r="S25" t="s">
+        <v>54</v>
+      </c>
+      <c r="T25">
+        <v>1.6838709677419299</v>
+      </c>
+      <c r="V25">
+        <v>22</v>
+      </c>
+      <c r="W25">
+        <v>4</v>
+      </c>
+      <c r="X25">
+        <v>22</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z25">
+        <v>1.6688311688311599</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" t="s">
-        <v>81</v>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="P26">
+        <v>23</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <v>23</v>
+      </c>
+      <c r="S26" t="s">
+        <v>55</v>
+      </c>
+      <c r="T26">
+        <v>1.67096774193548</v>
+      </c>
+      <c r="V26">
+        <v>23</v>
+      </c>
+      <c r="W26">
+        <v>4</v>
+      </c>
+      <c r="X26">
+        <v>23</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z26">
+        <v>1.6659482758620601</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L11" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11" t="s">
-        <v>71</v>
-      </c>
-      <c r="O11" t="s">
-        <v>74</v>
-      </c>
-      <c r="P11" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>76</v>
-      </c>
-      <c r="R11" t="s">
-        <v>77</v>
-      </c>
-      <c r="S11" t="s">
-        <v>78</v>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="P27">
+        <v>24</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>24</v>
+      </c>
+      <c r="S27" t="s">
+        <v>56</v>
+      </c>
+      <c r="T27">
+        <v>0.17004048582995901</v>
+      </c>
+      <c r="V27">
+        <v>24</v>
+      </c>
+      <c r="W27">
+        <v>4</v>
+      </c>
+      <c r="X27">
+        <v>24</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z27">
+        <v>0.12121212121212099</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>0.129151292</v>
-      </c>
-      <c r="B12">
-        <v>0.129552789</v>
-      </c>
-      <c r="C12">
-        <v>0.14778856500000001</v>
-      </c>
-      <c r="D12">
-        <v>0.36701797899999999</v>
-      </c>
-      <c r="E12">
-        <v>0.27695167300000001</v>
-      </c>
-      <c r="F12">
-        <v>0.12705882399999999</v>
-      </c>
-      <c r="G12">
-        <v>0.218629715</v>
-      </c>
-      <c r="H12">
-        <v>0.16981132099999999</v>
-      </c>
-      <c r="I12">
-        <v>0.16910229600000001</v>
-      </c>
-      <c r="J12">
-        <v>2.630336352</v>
-      </c>
-      <c r="K12">
-        <v>0.79164961099999998</v>
-      </c>
-      <c r="L12">
-        <v>0.54641909799999999</v>
-      </c>
-      <c r="M12">
-        <v>0.53846153799999996</v>
-      </c>
-      <c r="O12">
-        <f>AVERAGE(A12:C12)</f>
-        <v>0.13549754866666666</v>
-      </c>
-      <c r="P12">
-        <f>AVERAGE(D12:I12)</f>
-        <v>0.22142863466666665</v>
-      </c>
-      <c r="Q12">
-        <f>AVERAGE(J12:K12)</f>
-        <v>1.7109929815</v>
-      </c>
-      <c r="R12">
-        <f>AVERAGE(L12:M12)</f>
-        <v>0.54244031799999992</v>
-      </c>
-      <c r="S12">
-        <f>AVERAGE(O12:R12)</f>
-        <v>0.6525898707083333</v>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="P28">
+        <v>25</v>
+      </c>
+      <c r="Q28">
+        <v>3</v>
+      </c>
+      <c r="R28">
+        <v>25</v>
+      </c>
+      <c r="S28" t="s">
+        <v>57</v>
+      </c>
+      <c r="T28">
+        <v>0.16867469879517999</v>
+      </c>
+      <c r="V28">
+        <v>25</v>
+      </c>
+      <c r="W28">
+        <v>4</v>
+      </c>
+      <c r="X28">
+        <v>25</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z28">
+        <v>0.124463519313304</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>36</v>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="P29">
+        <v>26</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>26</v>
+      </c>
+      <c r="S29" t="s">
+        <v>58</v>
+      </c>
+      <c r="T29">
+        <v>3.0482573726541502</v>
+      </c>
+      <c r="V29">
+        <v>26</v>
+      </c>
+      <c r="W29">
+        <v>4</v>
+      </c>
+      <c r="X29">
+        <v>26</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z29">
+        <v>0.12121212121212099</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" t="s">
-        <v>45</v>
-      </c>
-      <c r="L16" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" t="s">
-        <v>49</v>
-      </c>
-      <c r="P16" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>51</v>
-      </c>
-      <c r="R16" t="s">
-        <v>52</v>
-      </c>
-      <c r="S16" t="s">
-        <v>53</v>
-      </c>
-      <c r="T16" t="s">
-        <v>54</v>
-      </c>
-      <c r="U16" t="s">
-        <v>55</v>
-      </c>
-      <c r="V16" t="s">
-        <v>56</v>
-      </c>
-      <c r="W16" t="s">
-        <v>57</v>
-      </c>
-      <c r="X16" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y16" t="s">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="P30">
+        <v>27</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30">
+        <v>27</v>
+      </c>
+      <c r="S30" t="s">
         <v>59</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="T30">
+        <v>3.6822429906542</v>
+      </c>
+      <c r="V30">
+        <v>27</v>
+      </c>
+      <c r="W30">
+        <v>4</v>
+      </c>
+      <c r="X30">
+        <v>27</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z30">
+        <v>3.1498127340823898</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="P31">
+        <v>28</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>28</v>
+      </c>
+      <c r="S31" t="s">
         <v>60</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="T31">
+        <v>0.49448123620308998</v>
+      </c>
+      <c r="V31">
+        <v>28</v>
+      </c>
+      <c r="W31">
+        <v>4</v>
+      </c>
+      <c r="X31">
+        <v>28</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z31">
+        <v>3.7011278195488702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="P32">
+        <v>29</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>29</v>
+      </c>
+      <c r="S32" t="s">
         <v>61</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="T32">
+        <v>0.90835579514824705</v>
+      </c>
+      <c r="V32">
+        <v>29</v>
+      </c>
+      <c r="W32">
+        <v>4</v>
+      </c>
+      <c r="X32">
+        <v>29</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z32">
+        <v>0.485458612975391</v>
+      </c>
+    </row>
+    <row r="33" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="P33">
+        <v>30</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>30</v>
+      </c>
+      <c r="S33" t="s">
         <v>62</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="T33">
+        <v>3.6812652068126499</v>
+      </c>
+      <c r="V33">
+        <v>30</v>
+      </c>
+      <c r="W33">
+        <v>4</v>
+      </c>
+      <c r="X33">
+        <v>30</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z33">
+        <v>0.90716180371352695</v>
+      </c>
+    </row>
+    <row r="34" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="P34">
+        <v>31</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34">
+        <v>31</v>
+      </c>
+      <c r="S34" t="s">
         <v>63</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="T34">
+        <v>0.27659574468085102</v>
+      </c>
+      <c r="V34">
+        <v>31</v>
+      </c>
+      <c r="W34">
+        <v>4</v>
+      </c>
+      <c r="X34">
+        <v>31</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z34">
+        <v>3.6848635235731999</v>
+      </c>
+    </row>
+    <row r="35" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="P35">
+        <v>32</v>
+      </c>
+      <c r="Q35">
+        <v>3</v>
+      </c>
+      <c r="R35">
+        <v>32</v>
+      </c>
+      <c r="S35" t="s">
         <v>64</v>
       </c>
-      <c r="AE16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>67</v>
+      <c r="T35">
+        <v>0.31914893617021201</v>
+      </c>
+      <c r="V35">
+        <v>32</v>
+      </c>
+      <c r="W35">
+        <v>4</v>
+      </c>
+      <c r="X35">
+        <v>32</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z35">
+        <v>0.20212765957446799</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>0.188050314</v>
-      </c>
-      <c r="B17">
-        <v>0.17641095000000001</v>
-      </c>
-      <c r="C17">
-        <v>0.17651029400000001</v>
-      </c>
-      <c r="D17">
-        <v>0.18954659900000001</v>
-      </c>
-      <c r="E17">
-        <v>2.1058315329999999</v>
-      </c>
-      <c r="F17">
-        <v>2.2044534410000001</v>
-      </c>
-      <c r="G17">
-        <v>2.1787406909999998</v>
-      </c>
-      <c r="H17">
-        <v>0.24551355499999999</v>
-      </c>
-      <c r="I17">
-        <v>0.47654018799999998</v>
-      </c>
-      <c r="J17">
-        <v>0.221297837</v>
-      </c>
-      <c r="K17">
-        <v>0.218853821</v>
-      </c>
-      <c r="L17">
-        <v>0.238240918</v>
-      </c>
-      <c r="M17">
-        <v>0.46993865000000001</v>
-      </c>
-      <c r="N17">
-        <v>1.5895765470000001</v>
-      </c>
-      <c r="O17">
-        <v>0.14889529300000001</v>
-      </c>
-      <c r="P17">
-        <v>0.146757679</v>
-      </c>
-      <c r="Q17">
-        <v>0.247487437</v>
-      </c>
-      <c r="R17">
-        <v>0.13610038599999999</v>
-      </c>
-      <c r="S17">
-        <v>1.293300654</v>
-      </c>
-      <c r="T17">
-        <v>1.5087235999999999</v>
-      </c>
-      <c r="U17">
-        <v>0.174022699</v>
-      </c>
-      <c r="V17">
-        <v>1.4112994350000001</v>
-      </c>
-      <c r="W17">
-        <v>1.6050420169999999</v>
-      </c>
-      <c r="X17">
-        <v>1.5841081990000001</v>
-      </c>
-      <c r="Y17">
-        <v>0.16403785500000001</v>
-      </c>
-      <c r="Z17">
-        <v>0.15047021899999999</v>
-      </c>
-      <c r="AA17">
-        <v>2.9658022869999998</v>
-      </c>
-      <c r="AB17">
-        <v>3.6167621780000001</v>
-      </c>
-      <c r="AC17">
-        <v>0.42044833199999998</v>
-      </c>
-      <c r="AD17">
-        <v>0.72311828</v>
-      </c>
-      <c r="AE17">
-        <v>3.5992996499999999</v>
-      </c>
-      <c r="AF17">
-        <v>0.27586206899999999</v>
-      </c>
-      <c r="AG17">
-        <v>0.32095490700000001</v>
+    <row r="36" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="V36">
+        <v>33</v>
+      </c>
+      <c r="W36">
+        <v>4</v>
+      </c>
+      <c r="X36">
+        <v>33</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z36">
+        <v>0.20212765957446799</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" t="s">
-        <v>78</v>
-      </c>
-      <c r="X19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <f>AVERAGE(A4,A12:C12,A17:G17)</f>
-        <v>0.71798822990909095</v>
-      </c>
-      <c r="B20">
-        <f>AVERAGE(B4:C4,D12:I12,H17:Z17)</f>
-        <v>0.53554939348148156</v>
-      </c>
-      <c r="C20">
-        <f>AVERAGE(D4,J12:K12,AA17:AE17)</f>
-        <v>2.2764669379999996</v>
-      </c>
-      <c r="D20">
-        <f>AVERAGE(E4,L12:M12,AF17:AG17)</f>
-        <v>1.0891246682</v>
-      </c>
-      <c r="E20">
-        <f>AVERAGE(A20:D20)</f>
-        <v>1.1547823073976431</v>
-      </c>
-      <c r="X20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="X21" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="X22">
-        <f>AVERAGE(A17:G17)</f>
-        <v>1.0313634031428571</v>
-      </c>
-      <c r="Y22">
-        <f>AVERAGE(H17:Z17)</f>
-        <v>0.63316878889473693</v>
-      </c>
-      <c r="Z22">
-        <f>AVERAGE(AA17:AE17)</f>
-        <v>2.2650861454000002</v>
-      </c>
-      <c r="AA22">
-        <f>AVERAGE(AF17:AG17)</f>
-        <v>0.29840848799999997</v>
-      </c>
-      <c r="AB22">
-        <f>AVERAGE(X22:AA22)</f>
-        <v>1.0570067063593986</v>
+    <row r="37" spans="16:26" x14ac:dyDescent="0.45">
+      <c r="V37">
+        <v>34</v>
+      </c>
+      <c r="W37">
+        <v>4</v>
+      </c>
+      <c r="X37">
+        <v>34</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z37">
+        <v>0.19680851063829699</v>
       </c>
     </row>
   </sheetData>

--- a/문서/Result_ALL.xlsx
+++ b/문서/Result_ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Documents\GitHub\DT_FINAL_Project\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC8D0E0-37C8-4E2C-B6F6-EEB5BEA67128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A250717-6606-4238-AB59-20D82A7B5170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Result_ALL" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="107">
   <si>
     <t>INIT TIME</t>
   </si>
@@ -376,10 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Scnario 3 Product Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Product Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -433,6 +429,21 @@
   </si>
   <si>
     <t>STOCK34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenarion 4 Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STOCK CountALL Count</t>
+  </si>
+  <si>
+    <t>Scenario 3 Product Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenario 4 Product Count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4669,7 +4680,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
               <a:t>Product Count</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR"/>
@@ -4731,11 +4742,6 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-7837-4245-8B57-719DA75A1F6E}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -4755,11 +4761,6 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-7837-4245-8B57-719DA75A1F6E}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -4779,157 +4780,27 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-7837-4245-8B57-719DA75A1F6E}"/>
-              </c:ext>
-            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.1218789183714874"/>
-                  <c:y val="8.0738244702968545E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{134531D9-A6EA-4942-A312-6D40EAB3B1EC}" type="VALUE">
-                      <a:rPr lang="en-US" altLang="ko-KR"/>
-                      <a:pPr/>
-                      <a:t>[값]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" altLang="ko-KR" baseline="0"/>
-                  </a:p>
-                  <a:p>
-                    <a:fld id="{08C1780B-E3F4-4899-B897-72B30294A000}" type="PERCENTAGE">
-                      <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[백분율]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-7837-4245-8B57-719DA75A1F6E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.10575632676682177"/>
-                  <c:y val="-0.16673712891526918"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D4745565-61E5-4211-A74E-F4F059E9BDAE}" type="VALUE">
-                      <a:rPr lang="en-US" altLang="ko-KR"/>
-                      <a:pPr/>
-                      <a:t>[값]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" altLang="ko-KR" baseline="0"/>
-                  </a:p>
-                  <a:p>
-                    <a:fld id="{51F8DB4A-5DE9-49BD-9FEE-4289EB45F982}" type="PERCENTAGE">
-                      <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[백분율]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-7837-4245-8B57-719DA75A1F6E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="7.1252935140870138E-2"/>
-                  <c:y val="0.16655081605034838"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{AAD573CA-E979-4CE0-BBFA-C13113C4EA72}" type="VALUE">
-                      <a:rPr lang="en-US" altLang="ko-KR"/>
-                      <a:pPr/>
-                      <a:t>[값]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-                      <a:t> </a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:fld id="{A174BECC-AE07-4F4C-B2E0-6564E35509C9}" type="PERCENTAGE">
-                      <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-                      <a:pPr/>
-                      <a:t>[백분율]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-7837-4245-8B57-719DA75A1F6E}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4958,7 +4829,7 @@
             </c:txPr>
             <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
@@ -4984,9 +4855,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(Result_ALL!$J$34,Result_ALL!$K$34,Result_ALL!$L$34)</c:f>
+              <c:f>(Result_ALL!$J$34,Result_ALL!$K$34,Result_ALL!$L$34,Result_ALL!$M$34)</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Scenario 1 Product Count</c:v>
                 </c:pt>
@@ -4994,17 +4865,20 @@
                   <c:v>Scenario 2 Product Count</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scnario 3 Product Count</c:v>
+                  <c:v>Scenario 3 Product Count</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Scenario 4 Product Count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Result_ALL!$J$35,Result_ALL!$K$35,Result_ALL!$L$35)</c:f>
+              <c:f>(Result_ALL!$J$35,Result_ALL!$K$35,Result_ALL!$L$35,Result_ALL!$M$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>155</c:v>
                 </c:pt>
@@ -5012,6 +4886,9 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
@@ -5019,7 +4896,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7837-4245-8B57-719DA75A1F6E}"/>
+              <c16:uniqueId val="{00000000-8E0B-4680-A704-E5B03E6F0161}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5044,7 +4921,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -16848,23 +16725,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>558362</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>71383</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>26147</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>215899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>78827</xdr:colOff>
+      <xdr:colOff>52295</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>153276</xdr:rowOff>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="차트 3">
+        <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E91518-2C42-F2C1-DD9E-851DD1077D86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725985A6-2CE6-C446-0EF8-CF868756F606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17737,10 +17614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D4D23E-0EB1-4402-9ED8-13A029C3A06D}">
-  <dimension ref="A2:L60"/>
+  <dimension ref="A2:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -18042,12 +17919,12 @@
         <v>1.15385</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="J33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -18058,10 +17935,13 @@
         <v>87</v>
       </c>
       <c r="L34" t="s">
-        <v>88</v>
+        <v>105</v>
+      </c>
+      <c r="M34" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -18080,8 +17960,11 @@
       <c r="L35">
         <v>78</v>
       </c>
+      <c r="M35">
+        <v>78</v>
+      </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>158</v>
       </c>
@@ -18092,12 +17975,12 @@
         <v>35.329099999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>27</v>
       </c>
@@ -18111,7 +17994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>5</v>
       </c>
@@ -18125,12 +18008,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -18153,7 +18036,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>3</v>
       </c>
@@ -18176,12 +18059,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -18195,7 +18078,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>26.2121</v>
       </c>
@@ -18209,12 +18092,12 @@
         <v>240.90899999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -18228,7 +18111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>2.62121</v>
       </c>
@@ -18242,12 +18125,12 @@
         <v>24.090900000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -18258,7 +18141,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>78</v>
       </c>
@@ -18269,12 +18152,12 @@
         <v>49.153799999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>27</v>
       </c>
@@ -18288,7 +18171,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>5</v>
       </c>
@@ -18299,6 +18182,180 @@
         <v>45</v>
       </c>
       <c r="D60">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>1000</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+      <c r="D65">
+        <v>20</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+      <c r="G65">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>27.285699999999999</v>
+      </c>
+      <c r="B69">
+        <v>707.17100000000005</v>
+      </c>
+      <c r="C69">
+        <v>42.085700000000003</v>
+      </c>
+      <c r="D69">
+        <v>223.45699999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>2.7285699999999999</v>
+      </c>
+      <c r="B73">
+        <v>70.717100000000002</v>
+      </c>
+      <c r="C73">
+        <v>4.2085699999999999</v>
+      </c>
+      <c r="D73">
+        <v>22.345700000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>3894</v>
+      </c>
+      <c r="C77">
+        <v>49.923099999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>27</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>29</v>
+      </c>
+      <c r="D80" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>25</v>
+      </c>
+      <c r="C81">
+        <v>45</v>
+      </c>
+      <c r="D81">
         <v>65</v>
       </c>
     </row>
@@ -18421,7 +18478,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -18487,8 +18544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC405B51-86C9-4C92-A463-353E118B9C8A}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J38" workbookViewId="0">
-      <selection activeCell="X40" sqref="X40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA75" sqref="AA75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -18498,13 +18555,13 @@
         <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" t="s">
         <v>97</v>
-      </c>
-      <c r="V1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.45">
@@ -18512,40 +18569,40 @@
         <v>77</v>
       </c>
       <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" t="s">
         <v>91</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>92</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>93</v>
       </c>
-      <c r="M2" t="s">
-        <v>94</v>
-      </c>
       <c r="Q2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" t="s">
         <v>91</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>92</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>93</v>
       </c>
-      <c r="T2" t="s">
-        <v>94</v>
-      </c>
       <c r="W2" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" t="s">
         <v>91</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>92</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>93</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.45">
@@ -18935,7 +18992,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="I11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P11">
         <v>8</v>
@@ -18970,16 +19027,16 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="J12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" t="s">
         <v>91</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>92</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>93</v>
-      </c>
-      <c r="M12" t="s">
-        <v>94</v>
       </c>
       <c r="P12">
         <v>9</v>
@@ -19326,7 +19383,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I19">
         <v>6</v>
@@ -19805,7 +19862,7 @@
         <v>26</v>
       </c>
       <c r="Y29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Z29">
         <v>0.12121212121212099</v>
@@ -19965,7 +20022,7 @@
         <v>31</v>
       </c>
       <c r="Y34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z34">
         <v>3.6848635235731999</v>
@@ -20014,7 +20071,7 @@
         <v>33</v>
       </c>
       <c r="Y36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z36">
         <v>0.20212765957446799</v>
@@ -20031,7 +20088,7 @@
         <v>34</v>
       </c>
       <c r="Y37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z37">
         <v>0.19680851063829699</v>

--- a/문서/Result_ALL.xlsx
+++ b/문서/Result_ALL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Documents\GitHub\DT_FINAL_Project\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A250717-6606-4238-AB59-20D82A7B5170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E2030C-404D-4B2F-84C5-6F0A257F02BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
   </bookViews>
@@ -912,6 +912,585 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>시나리오</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>4 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>설비 상태 비율</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5AD6-45DA-8002-745EB4DF3662}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5AD6-45DA-8002-745EB4DF3662}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5AD6-45DA-8002-745EB4DF3662}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5AD6-45DA-8002-745EB4DF3662}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'State Avg Rate'!$H$11:$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>INIT TIME</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ACTIVE TIME</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ERROR TIME</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAUSE TIME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'State Avg Rate'!$H$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.7285699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.717100000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2085699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.345700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-F89B-4DA5-82AA-56B8654C04AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-F89B-4DA5-82AA-56B8654C04AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-F89B-4DA5-82AA-56B8654C04AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-F89B-4DA5-82AA-56B8654C04AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-F89B-4DA5-82AA-56B8654C04AA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'State Avg Rate'!$A$11:$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>INIT TIME</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ACTIVE TIME</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ERROR TIME</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAUSE TIME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'State Avg Rate'!$A$12:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.62121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.293899999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9939399999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.090900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-F89B-4DA5-82AA-56B8654C04AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -1213,7 +1792,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -1529,7 +2108,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -1845,7 +2424,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -2227,7 +2806,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -2543,7 +3122,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -3042,7 +3621,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -3553,7 +4132,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -4687,6 +5266,402 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34195067879853852"/>
+          <c:y val="3.1307535079230252E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1E0F-4751-A00F-90076CE5EC01}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1E0F-4751-A00F-90076CE5EC01}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1E0F-4751-A00F-90076CE5EC01}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1E0F-4751-A00F-90076CE5EC01}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Result_ALL!$J$34,Result_ALL!$K$34,Result_ALL!$L$34,Result_ALL!$M$34)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Scenario 1 Product Count</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenario 2 Product Count</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scenario 3 Product Count</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Scenario 4 Product Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Result_ALL!$J$35,Result_ALL!$K$35,Result_ALL!$L$35,Result_ALL!$M$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E0B-4680-A704-E5B03E6F0161}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>시나리오 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>4 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>설비 비율</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4855,48 +5830,48 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(Result_ALL!$J$34,Result_ALL!$K$34,Result_ALL!$L$34,Result_ALL!$M$34)</c:f>
+              <c:f>(Result_ALL!$C$64,Result_ALL!$D$64,Result_ALL!$E$64,Result_ALL!$F$64)</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Scenario 1 Product Count</c:v>
+                  <c:v>GEN Count</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Scenario 2 Product Count</c:v>
+                  <c:v>TRACK Count</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Scenario 3 Product Count</c:v>
+                  <c:v>PROC Count</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Scenario 4 Product Count</c:v>
+                  <c:v>STOCK CountALL Count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Result_ALL!$J$35,Result_ALL!$K$35,Result_ALL!$L$35,Result_ALL!$M$35)</c:f>
+              <c:f>(Result_ALL!$C$65,Result_ALL!$D$65,Result_ALL!$E$65,Result_ALL!$F$65)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>155</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>158</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E0B-4680-A704-E5B03E6F0161}"/>
+              <c16:uniqueId val="{00000000-7E65-492F-ACC3-261D55515265}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5006,7 +5981,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -5386,7 +6361,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -5773,7 +6748,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -6160,7 +7135,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -6505,585 +7480,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:pattFill prst="dkDnDiag">
-      <a:fgClr>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
-      </a:fgClr>
-      <a:bgClr>
-        <a:schemeClr val="lt1"/>
-      </a:bgClr>
-    </a:pattFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>시나리오</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>4 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>설비 상태 비율</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-5AD6-45DA-8002-745EB4DF3662}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-5AD6-45DA-8002-745EB4DF3662}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-5AD6-45DA-8002-745EB4DF3662}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-5AD6-45DA-8002-745EB4DF3662}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'State Avg Rate'!$H$11:$K$11</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>INIT TIME</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ACTIVE TIME</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ERROR TIME</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>PAUSE TIME</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'State Avg Rate'!$H$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.7285699999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70.717100000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.2085699999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.345700000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-F89B-4DA5-82AA-56B8654C04AA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-F89B-4DA5-82AA-56B8654C04AA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000010-F89B-4DA5-82AA-56B8654C04AA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000012-F89B-4DA5-82AA-56B8654C04AA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000014-F89B-4DA5-82AA-56B8654C04AA}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'State Avg Rate'!$A$11:$D$11</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>INIT TIME</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ACTIVE TIME</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ERROR TIME</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>PAUSE TIME</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'State Avg Rate'!$A$12:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.62121</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>69.293899999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9939399999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.090900000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-F89B-4DA5-82AA-56B8654C04AA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="78000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -7486,6 +7882,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8338,6 +8774,537 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8840,7 +9807,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9343,7 +10310,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9846,7 +10813,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10349,7 +11316,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10852,7 +11819,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11355,7 +12322,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11858,7 +12825,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16754,6 +17721,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3735</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>631264</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>150159</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740270A7-7F59-9660-A779-387456241C8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17616,8 +18619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D4D23E-0EB1-4402-9ED8-13A029C3A06D}">
   <dimension ref="A2:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/문서/Result_ALL.xlsx
+++ b/문서/Result_ALL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Documents\GitHub\DT_FINAL_Project\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Naver MYBOX\Cording Study\Kosa\Code\C++\WAiSER Use Project\최종 프로젝트\DT_FINAL_Project\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E2030C-404D-4B2F-84C5-6F0A257F02BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90078B3B-90D7-49F2-8128-DA97D57618F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Result_ALL" sheetId="4" r:id="rId1"/>
@@ -926,6 +926,393 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ko-KR"/>
+              <a:t>총 설비 상태</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
+              <a:t>평균 비율</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-24D0-4074-B2C7-29AB20163118}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-24D0-4074-B2C7-29AB20163118}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-24D0-4074-B2C7-29AB20163118}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-24D0-4074-B2C7-29AB20163118}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('State Avg Rate'!$I$3,'State Avg Rate'!$J$3,'State Avg Rate'!$K$3,'State Avg Rate'!$L$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>INIT TIME</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ACTIVE TIME</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ERROR TIME</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>PAUSE TIME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('State Avg Rate'!$I$4,'State Avg Rate'!$J$4,'State Avg Rate'!$K$4,'State Avg Rate'!$L$4)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.9609166666666664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.137969999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2261870000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.67492</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B096-4C4C-BEB7-BC055948872B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR"/>
               <a:t>시나리오</a:t>
             </a:r>
             <a:r>
@@ -1470,7 +1857,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -1792,7 +2179,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -2108,7 +2495,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -2424,7 +2811,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -2806,7 +3193,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -3122,7 +3509,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -3621,7 +4008,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -4132,7 +4519,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -5717,6 +6104,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-ED4F-4C32-B9F7-3888C95718DE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5736,6 +6128,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-ED4F-4C32-B9F7-3888C95718DE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -5755,6 +6152,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-ED4F-4C32-B9F7-3888C95718DE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5774,6 +6176,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-ED4F-4C32-B9F7-3888C95718DE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -5982,6 +6389,522 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>Product Count</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34195067879853852"/>
+          <c:y val="3.1307535079230252E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="25000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3ABA-4EC1-80AA-B8639D58386D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3ABA-4EC1-80AA-B8639D58386D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3ABA-4EC1-80AA-B8639D58386D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>(Result_ALL!$J$34,Result_ALL!$K$34,Result_ALL!$L$34,Result_ALL!$M$34)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Result_ALL!$J$34,Result_ALL!$K$34,Result_ALL!$L$34)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Scenario 1 Product Count</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scenario 2 Product Count</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Scenario 3 Product Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>(Result_ALL!$J$35,Result_ALL!$K$35,Result_ALL!$L$35,Result_ALL!$M$35)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Result_ALL!$J$35,Result_ALL!$K$35,Result_ALL!$L$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:categoryFilterExceptions>
+                <c15:categoryFilterException>
+                  <c15:sqref>Result_ALL!$M$35</c15:sqref>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst>
+                      <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                        <a:prstClr val="black">
+                          <a:alpha val="25000"/>
+                        </a:prstClr>
+                      </a:outerShdw>
+                    </a:effectLst>
+                  </c15:spPr>
+                </c15:categoryFilterException>
+              </c15:categoryFilterExceptions>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3ABA-4EC1-80AA-B8639D58386D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:axId val="2033202112"/>
+        <c:axId val="117050096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2033202112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117050096"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="117050096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2033202112"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="78000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:pattFill prst="dkDnDiag">
+      <a:fgClr>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:fgClr>
+      <a:bgClr>
+        <a:schemeClr val="lt1"/>
+      </a:bgClr>
+    </a:pattFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -6361,7 +7284,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -6748,7 +7671,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -7026,393 +7949,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AEF1-4257-B1D8-B54CDB8C1F49}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="78000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:pattFill prst="dkDnDiag">
-      <a:fgClr>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-        </a:schemeClr>
-      </a:fgClr>
-      <a:bgClr>
-        <a:schemeClr val="lt1"/>
-      </a:bgClr>
-    </a:pattFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>총 설비 상태</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>평균 비율</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-24D0-4074-B2C7-29AB20163118}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-24D0-4074-B2C7-29AB20163118}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-24D0-4074-B2C7-29AB20163118}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="25000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-24D0-4074-B2C7-29AB20163118}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ko-KR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>('State Avg Rate'!$I$3,'State Avg Rate'!$J$3,'State Avg Rate'!$K$3,'State Avg Rate'!$L$3)</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>INIT TIME</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ACTIVE TIME</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>ERROR TIME</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>PAUSE TIME</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>('State Avg Rate'!$I$4,'State Avg Rate'!$J$4,'State Avg Rate'!$K$4,'State Avg Rate'!$L$4)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.9609166666666664</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>77.137969999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.2261870000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.67492</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B096-4C4C-BEB7-BC055948872B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7922,6 +8458,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9305,6 +9881,537 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9807,7 +10914,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10310,7 +11417,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10813,7 +11920,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11316,7 +12423,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11819,7 +12926,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12322,7 +13429,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12825,7 +13932,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17757,6 +18864,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>37353</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>7470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>30630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E042FF82-4240-47F1-8D2A-4FC14F209F5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18619,8 +19764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D4D23E-0EB1-4402-9ED8-13A029C3A06D}">
   <dimension ref="A2:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W59" sqref="W59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/문서/Result_ALL.xlsx
+++ b/문서/Result_ALL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Documents\GitHub\DT_FINAL_Project\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Naver MYBOX\Cording Study\Kosa\Code\C++\WAiSER Use Project\최종 프로젝트\DT_FINAL_Project\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5983F97F-0648-414B-8E23-F46BFBA15B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A15D4D7-C3C9-4733-BD32-07F5289E2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Result_ALL" sheetId="4" r:id="rId1"/>
@@ -1742,6 +1742,19 @@
               <a:rPr lang="ko-KR"/>
               <a:t>설비 상태 비율</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>폐기</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2314,8 +2327,12 @@
               <a:t>시나리오 </a:t>
             </a:r>
             <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>5 </a:t>
+              <a:t> </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ko-KR"/>
@@ -2379,6 +2396,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F102-45E9-89CB-8D20F2E5F99C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2398,6 +2420,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F102-45E9-89CB-8D20F2E5F99C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2417,6 +2444,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-F102-45E9-89CB-8D20F2E5F99C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2436,6 +2468,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-F102-45E9-89CB-8D20F2E5F99C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4329,24 +4366,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>시나리오 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>3 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>세부설비별 버퍼 평균</a:t>
             </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="ko-KR">
+            <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -5225,9 +5262,24 @@
               </a:rPr>
               <a:t>세부설비별 버퍼 평균</a:t>
             </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="ko-KR">
-              <a:effectLst/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>폐기</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5736,6 +5788,24 @@
               </a:rPr>
               <a:t>설비별 버퍼 평균</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>폐기</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
             <a:endParaRPr lang="ko-KR" altLang="ko-KR">
               <a:effectLst/>
             </a:endParaRPr>
@@ -5773,7 +5843,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.5664260717410323E-2"/>
+          <c:y val="0.23666666666666666"/>
+          <c:w val="0.89655796150481193"/>
+          <c:h val="0.65593394575678043"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -6044,17 +6124,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ko-KR"/>
-              <a:t>시나리오</a:t>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>시나리오 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>5 </a:t>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>4 </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ko-KR"/>
+              <a:rPr lang="ko-KR" altLang="ko-KR" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
               <a:t>세부설비별 버퍼 평균</a:t>
             </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="ko-KR" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6383,7 +6472,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>5 </a:t>
+              <a:t>4 </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ko-KR" altLang="en-US"/>
@@ -7094,6 +7183,18 @@
               <a:rPr lang="ko-KR" altLang="en-US"/>
               <a:t>설비 비율</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>폐기</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>)</a:t>
+            </a:r>
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:rich>
@@ -7475,8 +7576,12 @@
               <a:t>시나리오 </a:t>
             </a:r>
             <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>5 </a:t>
+              <a:t> </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ko-KR"/>
@@ -7540,6 +7645,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-99AB-4061-978F-513EA6755A11}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -7559,6 +7669,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-99AB-4061-978F-513EA6755A11}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -7578,6 +7693,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-99AB-4061-978F-513EA6755A11}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -7597,6 +7717,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-99AB-4061-978F-513EA6755A11}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -7900,6 +8025,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-08E8-4B88-8771-7114BA12CEEC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -7919,6 +8049,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-08E8-4B88-8771-7114BA12CEEC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -7938,6 +8073,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-08E8-4B88-8771-7114BA12CEEC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -7957,6 +8097,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-08E8-4B88-8771-7114BA12CEEC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -7976,6 +8121,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-08E8-4B88-8771-7114BA12CEEC}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -23406,8 +23556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D4D23E-0EB1-4402-9ED8-13A029C3A06D}">
   <dimension ref="A2:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="G34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V97" sqref="V97"/>
+    <sheetView topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -24340,8 +24490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1636C5F-CEE7-40E4-84BB-DF350837DDA9}">
   <dimension ref="A2:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -24541,8 +24691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC405B51-86C9-4C92-A463-353E118B9C8A}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="AI63" sqref="AI63"/>
+    <sheetView tabSelected="1" topLeftCell="M34" workbookViewId="0">
+      <selection activeCell="AJ60" sqref="AJ60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/문서/Result_ALL.xlsx
+++ b/문서/Result_ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Naver MYBOX\Cording Study\Kosa\Code\C++\WAiSER Use Project\최종 프로젝트\DT_FINAL_Project\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A15D4D7-C3C9-4733-BD32-07F5289E2FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF12AE4-3DAA-4BE6-A291-EA6B5A1A8443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Result_ALL" sheetId="4" r:id="rId1"/>
@@ -2595,7 +2595,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -24490,8 +24490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1636C5F-CEE7-40E4-84BB-DF350837DDA9}">
   <dimension ref="A2:Q12"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -24691,7 +24691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC405B51-86C9-4C92-A463-353E118B9C8A}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M34" workbookViewId="0">
+    <sheetView topLeftCell="M37" workbookViewId="0">
       <selection activeCell="AJ60" sqref="AJ60"/>
     </sheetView>
   </sheetViews>

--- a/문서/Result_ALL.xlsx
+++ b/문서/Result_ALL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSA\Naver MYBOX\Cording Study\Kosa\Code\C++\WAiSER Use Project\최종 프로젝트\DT_FINAL_Project\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF12AE4-3DAA-4BE6-A291-EA6B5A1A8443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1F656E-8983-4935-BAA9-AB6A3FCB8959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{F74975B7-C81C-43D1-81E9-E07384D1FDBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Result_ALL" sheetId="4" r:id="rId1"/>
@@ -451,10 +451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Scenario 5 Product Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>State Avg Rate 5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -476,6 +472,10 @@
   </si>
   <si>
     <t>시나리오 5 설비별 버퍼 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scenario 4 Product Count(폐기)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8195,10 +8195,10 @@
                   <c:v>Scenario 3 Product Count</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Scenario 4 Product Count(폐기)</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Scenario 4 Product Count</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scenario 5 Product Count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8518,9 +8518,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(Result_ALL!$J$34,Result_ALL!$K$34,Result_ALL!$L$34,Result_ALL!$M$34,Result_ALL!$N$34)</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>(Result_ALL!$J$34,Result_ALL!$K$34,Result_ALL!$L$34,Result_ALL!$M$34,Result_ALL!$N$34)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Result_ALL!$J$34,Result_ALL!$K$34,Result_ALL!$L$34)</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Scenario 1 Product Count</c:v>
                 </c:pt>
@@ -8529,22 +8536,23 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Scenario 3 Product Count</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Scenario 4 Product Count</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Scenario 5 Product Count</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Result_ALL!$J$35,Result_ALL!$K$35,Result_ALL!$L$35,Result_ALL!$M$35,Result_ALL!$N$35)</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>(Result_ALL!$J$35,Result_ALL!$K$35,Result_ALL!$L$35,Result_ALL!$M$35,Result_ALL!$N$35)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Result_ALL!$J$35,Result_ALL!$K$35,Result_ALL!$L$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>155</c:v>
                 </c:pt>
@@ -8553,12 +8561,6 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23556,8 +23558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00D4D23E-0EB1-4402-9ED8-13A029C3A06D}">
   <dimension ref="A2:N102"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" topLeftCell="J25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z38" sqref="Z38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -23878,10 +23880,10 @@
         <v>105</v>
       </c>
       <c r="M34" t="s">
+        <v>114</v>
+      </c>
+      <c r="N34" t="s">
         <v>106</v>
-      </c>
-      <c r="N34" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.45">
@@ -24490,7 +24492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1636C5F-CEE7-40E4-84BB-DF350837DDA9}">
   <dimension ref="A2:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
@@ -24601,7 +24603,7 @@
         <v>89</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
@@ -24711,7 +24713,7 @@
         <v>97</v>
       </c>
       <c r="AB1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.45">
@@ -25047,7 +25049,7 @@
         <v>2.1635802469135799</v>
       </c>
       <c r="AB7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC7">
         <v>2.77941176470588</v>
@@ -25088,7 +25090,7 @@
         <v>2.2297297297297298</v>
       </c>
       <c r="AB8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC8">
         <v>0.75531914893617003</v>
@@ -25138,7 +25140,7 @@
         <v>2.2601156069364099</v>
       </c>
       <c r="AB9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC9">
         <v>0.76595744680850997</v>
@@ -25893,7 +25895,7 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I25">
         <v>12</v>
